--- a/KTSA/Results.xlsx
+++ b/KTSA/Results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="556">
   <si>
     <t>Popular Predictions</t>
   </si>
@@ -1595,6 +1595,99 @@
   </si>
   <si>
     <t>Precision : 0.865562208708789</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7425</t>
+  </si>
+  <si>
+    <t>Total Predictions: 9980</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7634</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7759</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7889</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7984</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 8075</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 8143</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 8201</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 8243</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 8291</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 6272</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 6621</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 6853</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7016</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7182</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7295</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7391</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7466</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7553</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7610</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 6598</t>
+  </si>
+  <si>
+    <t>Total Predictions: 9967</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 6781</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 6931</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7181</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7275</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7356</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7434</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7497</t>
+  </si>
+  <si>
+    <t>Correct Predictions: 7550</t>
   </si>
 </sst>
 </file>
@@ -1923,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U426"/>
+  <dimension ref="A1:U435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="F396" sqref="F396"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R428" sqref="R428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2256,7 +2349,7 @@
         <v>0.65167369530838004</v>
       </c>
       <c r="U13">
-        <f t="shared" ref="U13:U76" si="3">S12*S13</f>
+        <f t="shared" ref="U13" si="3">S12*S13</f>
         <v>4.9648587321030405E-2</v>
       </c>
     </row>
@@ -2416,7 +2509,7 @@
         <v>0.66109797176235097</v>
       </c>
       <c r="U19">
-        <f t="shared" ref="U19:U82" si="7">S18*S19</f>
+        <f t="shared" ref="U19" si="7">S18*S19</f>
         <v>6.1743542373676026E-2</v>
       </c>
     </row>
@@ -2576,7 +2669,7 @@
         <v>0.66990323186771605</v>
       </c>
       <c r="U25">
-        <f t="shared" ref="U25:U88" si="11">S24*S25</f>
+        <f t="shared" ref="U25" si="11">S24*S25</f>
         <v>7.1592301050221532E-2</v>
       </c>
     </row>
@@ -2736,7 +2829,7 @@
         <v>0.68133333333334201</v>
       </c>
       <c r="U31">
-        <f t="shared" ref="U31:U94" si="15">S30*S31</f>
+        <f t="shared" ref="U31" si="15">S30*S31</f>
         <v>7.9832526757566219E-2</v>
       </c>
     </row>
@@ -2896,7 +2989,7 @@
         <v>0.69060586700739401</v>
       </c>
       <c r="U37">
-        <f t="shared" ref="U37:U100" si="19">S36*S37</f>
+        <f t="shared" ref="U37" si="19">S36*S37</f>
         <v>8.6826710041030458E-2</v>
       </c>
     </row>
@@ -3056,7 +3149,7 @@
         <v>0.69540180582066902</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43:U106" si="23">S42*S43</f>
+        <f t="shared" ref="U43" si="23">S42*S43</f>
         <v>9.301535027955285E-2</v>
       </c>
     </row>
@@ -3216,7 +3309,7 @@
         <v>0.70314648997134999</v>
       </c>
       <c r="U49">
-        <f t="shared" ref="U49:U112" si="27">S48*S49</f>
+        <f t="shared" ref="U49" si="27">S48*S49</f>
         <v>9.8555442880379526E-2</v>
       </c>
     </row>
@@ -3376,7 +3469,7 @@
         <v>0.70441714069018202</v>
       </c>
       <c r="U55">
-        <f t="shared" ref="U55:U118" si="31">S54*S55</f>
+        <f t="shared" ref="U55" si="31">S54*S55</f>
         <v>0.10361363793561246</v>
       </c>
     </row>
@@ -3536,7 +3629,7 @@
         <v>0.70954467693116396</v>
       </c>
       <c r="U61">
-        <f t="shared" ref="U61:U124" si="35">S60*S61</f>
+        <f t="shared" ref="U61" si="35">S60*S61</f>
         <v>0.10827185284844865</v>
       </c>
     </row>
@@ -3696,7 +3789,7 @@
         <v>0.93260694108151099</v>
       </c>
       <c r="U67">
-        <f t="shared" ref="U67:U130" si="39">S66*S67</f>
+        <f t="shared" ref="U67" si="39">S66*S67</f>
         <v>0.20882949456816247</v>
       </c>
     </row>
@@ -3856,7 +3949,7 @@
         <v>0.91802248126561103</v>
       </c>
       <c r="U73">
-        <f t="shared" ref="U73:U136" si="43">S72*S73</f>
+        <f t="shared" ref="U73" si="43">S72*S73</f>
         <v>0.22139902407678813</v>
       </c>
     </row>
@@ -4016,7 +4109,7 @@
         <v>0.90472476100430199</v>
       </c>
       <c r="U79">
-        <f t="shared" ref="U79:U142" si="47">S78*S79</f>
+        <f t="shared" ref="U79" si="47">S78*S79</f>
         <v>0.23058227407511314</v>
       </c>
     </row>
@@ -4176,7 +4269,7 @@
         <v>0.89569115204590599</v>
       </c>
       <c r="U85">
-        <f t="shared" ref="U85:U148" si="51">S84*S85</f>
+        <f t="shared" ref="U85" si="51">S84*S85</f>
         <v>0.23824424185224721</v>
       </c>
     </row>
@@ -4336,7 +4429,7 @@
         <v>0.89065984654730102</v>
       </c>
       <c r="U91">
-        <f t="shared" ref="U91:U154" si="55">S90*S91</f>
+        <f t="shared" ref="U91" si="55">S90*S91</f>
         <v>0.24475752525150687</v>
       </c>
     </row>
@@ -4496,7 +4589,7 @@
         <v>0.88714675201517301</v>
       </c>
       <c r="U97">
-        <f t="shared" ref="U97:U160" si="59">S96*S97</f>
+        <f t="shared" ref="U97" si="59">S96*S97</f>
         <v>0.25047256638352827</v>
       </c>
     </row>
@@ -4656,7 +4749,7 @@
         <v>0.88260947097286802</v>
       </c>
       <c r="U103">
-        <f t="shared" ref="U103:U134" si="63">S102*S103</f>
+        <f t="shared" ref="U103" si="63">S102*S103</f>
         <v>0.25557197075099347</v>
       </c>
     </row>
@@ -4816,7 +4909,7 @@
         <v>0.88202252926762803</v>
       </c>
       <c r="U109">
-        <f t="shared" ref="U109:U140" si="67">S108*S109</f>
+        <f t="shared" ref="U109" si="67">S108*S109</f>
         <v>0.26021958272254381</v>
       </c>
     </row>
@@ -4976,7 +5069,7 @@
         <v>0.88120241494172002</v>
       </c>
       <c r="U115">
-        <f t="shared" ref="U115:U146" si="71">S114*S115</f>
+        <f t="shared" ref="U115" si="71">S114*S115</f>
         <v>0.26443681376913236</v>
       </c>
     </row>
@@ -5136,7 +5229,7 @@
         <v>0.88106794195249105</v>
       </c>
       <c r="U121">
-        <f t="shared" ref="U121:U152" si="75">S120*S121</f>
+        <f t="shared" ref="U121" si="75">S120*S121</f>
         <v>0.26821803650675186</v>
       </c>
     </row>
@@ -5296,7 +5389,7 @@
         <v>0.68864353312303395</v>
       </c>
       <c r="U127">
-        <f t="shared" ref="U127:U158" si="79">S126*S127</f>
+        <f t="shared" ref="U127" si="79">S126*S127</f>
         <v>6.1370710255226467E-2</v>
       </c>
     </row>
@@ -5456,7 +5549,7 @@
         <v>0.69837738374037905</v>
       </c>
       <c r="U133">
-        <f t="shared" ref="U133:U164" si="83">S132*S133</f>
+        <f t="shared" ref="U133" si="83">S132*S133</f>
         <v>8.3835016767404277E-2</v>
       </c>
     </row>
@@ -5616,7 +5709,7 @@
         <v>0.68792224346717401</v>
       </c>
       <c r="U139">
-        <f t="shared" ref="U139:U170" si="87">S138*S139</f>
+        <f t="shared" ref="U139" si="87">S138*S139</f>
         <v>0.1011459400121813</v>
       </c>
     </row>
@@ -5776,7 +5869,7 @@
         <v>0.68292041154209904</v>
       </c>
       <c r="U145">
-        <f t="shared" ref="U145:U176" si="91">S144*S145</f>
+        <f t="shared" ref="U145" si="91">S144*S145</f>
         <v>0.11596166589690485</v>
       </c>
     </row>
@@ -5936,7 +6029,7 @@
         <v>0.69382831129415601</v>
       </c>
       <c r="U151">
-        <f t="shared" ref="U151:U182" si="95">S150*S151</f>
+        <f t="shared" ref="U151" si="95">S150*S151</f>
         <v>0.12854193859314153</v>
       </c>
     </row>
@@ -6096,7 +6189,7 @@
         <v>0.69444444444443598</v>
       </c>
       <c r="U157">
-        <f t="shared" ref="U157:U188" si="99">S156*S157</f>
+        <f t="shared" ref="U157" si="99">S156*S157</f>
         <v>0.13951920051941913</v>
       </c>
     </row>
@@ -6256,7 +6349,7 @@
         <v>0.69917081037495898</v>
       </c>
       <c r="U163">
-        <f t="shared" ref="U163:U194" si="103">S162*S163</f>
+        <f t="shared" ref="U163" si="103">S162*S163</f>
         <v>0.1492436738546114</v>
       </c>
     </row>
@@ -6416,7 +6509,7 @@
         <v>0.70091574683996105</v>
       </c>
       <c r="U169">
-        <f t="shared" ref="U169:U200" si="107">S168*S169</f>
+        <f t="shared" ref="U169" si="107">S168*S169</f>
         <v>0.15811738187514052</v>
       </c>
     </row>
@@ -6576,7 +6669,7 @@
         <v>0.70269408847021397</v>
       </c>
       <c r="U175">
-        <f t="shared" ref="U175:U206" si="111">S174*S175</f>
+        <f t="shared" ref="U175" si="111">S174*S175</f>
         <v>0.16626527529557836</v>
       </c>
     </row>
@@ -6736,7 +6829,7 @@
         <v>0.70322562312249004</v>
       </c>
       <c r="U181">
-        <f t="shared" ref="U181:U212" si="115">S180*S181</f>
+        <f t="shared" ref="U181" si="115">S180*S181</f>
         <v>0.1739318058595494</v>
       </c>
     </row>
@@ -6896,7 +6989,7 @@
         <v>0.90568756707036202</v>
       </c>
       <c r="U187">
-        <f t="shared" ref="U187:U218" si="119">S186*S187</f>
+        <f t="shared" ref="U187" si="119">S186*S187</f>
         <v>0.11863290427518558</v>
       </c>
     </row>
@@ -7056,7 +7149,7 @@
         <v>0.89154218533885798</v>
       </c>
       <c r="U193">
-        <f t="shared" ref="U193:U224" si="123">S192*S193</f>
+        <f t="shared" ref="U193" si="123">S192*S193</f>
         <v>0.12943733809915731</v>
       </c>
     </row>
@@ -7216,7 +7309,7 @@
         <v>0.88577018390503803</v>
       </c>
       <c r="U199">
-        <f t="shared" ref="U199:U230" si="127">S198*S199</f>
+        <f t="shared" ref="U199" si="127">S198*S199</f>
         <v>0.13637221630956267</v>
       </c>
     </row>
@@ -7376,7 +7469,7 @@
         <v>0.88415841584159105</v>
       </c>
       <c r="U205">
-        <f t="shared" ref="U205:U236" si="131">S204*S205</f>
+        <f t="shared" ref="U205" si="131">S204*S205</f>
         <v>0.1416634872186191</v>
       </c>
     </row>
@@ -7536,7 +7629,7 @@
         <v>0.88174672489081696</v>
       </c>
       <c r="U211">
-        <f t="shared" ref="U211:U242" si="135">S210*S211</f>
+        <f t="shared" ref="U211" si="135">S210*S211</f>
         <v>0.14596919616859552</v>
       </c>
     </row>
@@ -7696,7 +7789,7 @@
         <v>0.87775553462081601</v>
       </c>
       <c r="U217">
-        <f t="shared" ref="U217:U248" si="139">S216*S217</f>
+        <f t="shared" ref="U217" si="139">S216*S217</f>
         <v>0.1496797124440242</v>
       </c>
     </row>
@@ -7856,7 +7949,7 @@
         <v>0.87698330454807705</v>
       </c>
       <c r="U223">
-        <f t="shared" ref="U223:U254" si="143">S222*S223</f>
+        <f t="shared" ref="U223" si="143">S222*S223</f>
         <v>0.15294684632221586</v>
       </c>
     </row>
@@ -8016,7 +8109,7 @@
         <v>0.87476481523209304</v>
       </c>
       <c r="U229">
-        <f t="shared" ref="U229:U260" si="147">S228*S229</f>
+        <f t="shared" ref="U229" si="147">S228*S229</f>
         <v>0.15591502841422572</v>
       </c>
     </row>
@@ -8176,7 +8269,7 @@
         <v>0.87228296214491896</v>
       </c>
       <c r="U235">
-        <f t="shared" ref="U235:U266" si="151">S234*S235</f>
+        <f t="shared" ref="U235" si="151">S234*S235</f>
         <v>0.15860804880062293</v>
       </c>
     </row>
@@ -8336,7 +8429,7 @@
         <v>0.86683841002375195</v>
       </c>
       <c r="U241">
-        <f t="shared" ref="U241:U272" si="155">S240*S241</f>
+        <f t="shared" ref="U241" si="155">S240*S241</f>
         <v>0.16115162955079199</v>
       </c>
     </row>
@@ -8496,7 +8589,7 @@
         <v>0.68185966913862195</v>
       </c>
       <c r="U247">
-        <f t="shared" ref="U247:U278" si="159">S246*S247</f>
+        <f t="shared" ref="U247" si="159">S246*S247</f>
         <v>4.8004980019679219E-2</v>
       </c>
     </row>
@@ -8656,7 +8749,7 @@
         <v>0.66093031807317304</v>
       </c>
       <c r="U253">
-        <f t="shared" ref="U253:U284" si="163">S252*S253</f>
+        <f t="shared" ref="U253" si="163">S252*S253</f>
         <v>7.2186188477679838E-2</v>
       </c>
     </row>
@@ -8816,7 +8909,7 @@
         <v>0.65465811342761704</v>
       </c>
       <c r="U259">
-        <f t="shared" ref="U259:U302" si="167">S258*S259</f>
+        <f t="shared" ref="U259" si="167">S258*S259</f>
         <v>9.0168477278660272E-2</v>
       </c>
     </row>
@@ -8976,7 +9069,7 @@
         <v>0.64150717703349203</v>
       </c>
       <c r="U265">
-        <f t="shared" ref="U265:U302" si="171">S264*S265</f>
+        <f t="shared" ref="U265" si="171">S264*S265</f>
         <v>0.10500060242173467</v>
       </c>
     </row>
@@ -9136,7 +9229,7 @@
         <v>0.63610462602680296</v>
       </c>
       <c r="U271">
-        <f t="shared" ref="U271:U302" si="175">S270*S271</f>
+        <f t="shared" ref="U271" si="175">S270*S271</f>
         <v>0.11817988313018238</v>
       </c>
     </row>
@@ -9296,7 +9389,7 @@
         <v>0.62742077035592003</v>
       </c>
       <c r="U277">
-        <f t="shared" ref="U277:U302" si="179">S276*S277</f>
+        <f t="shared" ref="U277" si="179">S276*S277</f>
         <v>0.12920339765858613</v>
       </c>
     </row>
@@ -9456,7 +9549,7 @@
         <v>0.61910685519957598</v>
       </c>
       <c r="U283">
-        <f t="shared" ref="U283:U302" si="183">S282*S283</f>
+        <f t="shared" ref="U283" si="183">S282*S283</f>
         <v>0.13891644410530421</v>
       </c>
     </row>
@@ -9616,7 +9709,7 @@
         <v>0.618110236220479</v>
       </c>
       <c r="U289">
-        <f t="shared" ref="U289:U302" si="187">S288*S289</f>
+        <f t="shared" ref="U289" si="187">S288*S289</f>
         <v>0.14817566617803701</v>
       </c>
     </row>
@@ -9776,7 +9869,7 @@
         <v>0.61166257209067898</v>
       </c>
       <c r="U295">
-        <f t="shared" ref="U295:U302" si="191">S294*S295</f>
+        <f t="shared" ref="U295" si="191">S294*S295</f>
         <v>0.15665263247142525</v>
       </c>
     </row>
@@ -9936,7 +10029,7 @@
         <v>0.61050586565044196</v>
       </c>
       <c r="U301">
-        <f t="shared" ref="U301:U302" si="195">S300*S301</f>
+        <f t="shared" ref="U301" si="195">S300*S301</f>
         <v>0.16406755155725725</v>
       </c>
     </row>
@@ -10272,7 +10365,7 @@
         <v>0.80300159825367101</v>
       </c>
       <c r="U315">
-        <f t="shared" ref="U315:U346" si="199">S314*S315</f>
+        <f t="shared" ref="U315" si="199">S314*S315</f>
         <v>0.41347651545566877</v>
       </c>
     </row>
@@ -10432,7 +10525,7 @@
         <v>0.82224921440659204</v>
       </c>
       <c r="U321">
-        <f t="shared" ref="U321:U364" si="203">S320*S321</f>
+        <f t="shared" ref="U321" si="203">S320*S321</f>
         <v>0.45519135554664336</v>
       </c>
     </row>
@@ -10592,7 +10685,7 @@
         <v>0.83866874521004298</v>
       </c>
       <c r="U327">
-        <f t="shared" ref="U327:U364" si="207">S326*S327</f>
+        <f t="shared" ref="U327" si="207">S326*S327</f>
         <v>0.48323615014049542</v>
       </c>
     </row>
@@ -10752,7 +10845,7 @@
         <v>0.851951509388996</v>
       </c>
       <c r="U333">
-        <f t="shared" ref="U333:U364" si="211">S332*S333</f>
+        <f t="shared" ref="U333" si="211">S332*S333</f>
         <v>0.50359534323557864</v>
       </c>
     </row>
@@ -10912,7 +11005,7 @@
         <v>0.86473728794676297</v>
       </c>
       <c r="U339">
-        <f t="shared" ref="U339:U364" si="215">S338*S339</f>
+        <f t="shared" ref="U339" si="215">S338*S339</f>
         <v>0.51908537401316446</v>
       </c>
     </row>
@@ -11072,7 +11165,7 @@
         <v>0.87428278881916299</v>
       </c>
       <c r="U345">
-        <f t="shared" ref="U345:U364" si="219">S344*S345</f>
+        <f t="shared" ref="U345" si="219">S344*S345</f>
         <v>0.53130842461439076</v>
       </c>
     </row>
@@ -11232,7 +11325,7 @@
         <v>0.88360683270515805</v>
       </c>
       <c r="U351">
-        <f t="shared" ref="U351:U364" si="223">S350*S351</f>
+        <f t="shared" ref="U351" si="223">S350*S351</f>
         <v>0.54121361902846032</v>
       </c>
     </row>
@@ -11392,7 +11485,7 @@
         <v>0.89163843280351096</v>
       </c>
       <c r="U357">
-        <f t="shared" ref="U357:U364" si="227">S356*S357</f>
+        <f t="shared" ref="U357" si="227">S356*S357</f>
         <v>0.54937240733313064</v>
       </c>
     </row>
@@ -11552,7 +11645,7 @@
         <v>0.89811278561014096</v>
       </c>
       <c r="U363">
-        <f t="shared" ref="U363:U364" si="231">S362*S363</f>
+        <f t="shared" ref="U363" si="231">S362*S363</f>
         <v>0.556227820152567</v>
       </c>
     </row>
@@ -11586,6 +11679,15 @@
       <c r="C366">
         <v>0</v>
       </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="O366">
+        <v>0</v>
+      </c>
+      <c r="U366">
+        <v>0</v>
+      </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
@@ -11594,6 +11696,24 @@
       <c r="C367">
         <v>0</v>
       </c>
+      <c r="G367" t="s">
+        <v>509</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="M367" t="s">
+        <v>509</v>
+      </c>
+      <c r="O367">
+        <v>0</v>
+      </c>
+      <c r="S367" t="s">
+        <v>509</v>
+      </c>
+      <c r="U367">
+        <v>0</v>
+      </c>
     </row>
     <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
@@ -11602,24 +11722,78 @@
       <c r="C368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G368" t="s">
+        <v>525</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="M368" t="s">
+        <v>536</v>
+      </c>
+      <c r="O368">
+        <v>0</v>
+      </c>
+      <c r="S368" t="s">
+        <v>546</v>
+      </c>
+      <c r="U368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>511</v>
       </c>
       <c r="C369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G369" t="s">
+        <v>526</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="M369" t="s">
+        <v>526</v>
+      </c>
+      <c r="O369">
+        <v>0</v>
+      </c>
+      <c r="S369" t="s">
+        <v>547</v>
+      </c>
+      <c r="U369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>0.65105105105105099</v>
       </c>
       <c r="C370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G370">
+        <v>0.74398797595190302</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="M370">
+        <v>0.62845691382765501</v>
+      </c>
+      <c r="O370">
+        <v>0</v>
+      </c>
+      <c r="S370">
+        <v>0.66198454901173798</v>
+      </c>
+      <c r="U370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>0.89838560885608398</v>
       </c>
@@ -11627,472 +11801,1522 @@
         <f>A370*A371</f>
         <v>0.58489489489489188</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G371">
+        <v>0.92133333333332201</v>
+      </c>
+      <c r="I371">
+        <f>G370*G371</f>
+        <v>0.68546092184367824</v>
+      </c>
+      <c r="M371">
+        <v>0.90395408163264801</v>
+      </c>
+      <c r="O371">
+        <f>M370*M371</f>
+        <v>0.56809619238476605</v>
+      </c>
+      <c r="S371">
+        <v>0.81805092452257999</v>
+      </c>
+      <c r="U371">
+        <f>S370*S371</f>
+        <v>0.5415370723387154</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>3</v>
       </c>
       <c r="C372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G372" t="s">
+        <v>3</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="M372" t="s">
+        <v>3</v>
+      </c>
+      <c r="O372">
+        <v>0</v>
+      </c>
+      <c r="S372" t="s">
+        <v>3</v>
+      </c>
+      <c r="U372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>509</v>
       </c>
       <c r="C373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G373" t="s">
+        <v>509</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="M373" t="s">
+        <v>509</v>
+      </c>
+      <c r="O373">
+        <v>0</v>
+      </c>
+      <c r="S373" t="s">
+        <v>509</v>
+      </c>
+      <c r="U373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>512</v>
       </c>
       <c r="C374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G374" t="s">
+        <v>527</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="M374" t="s">
+        <v>537</v>
+      </c>
+      <c r="O374">
+        <v>0</v>
+      </c>
+      <c r="S374" t="s">
+        <v>548</v>
+      </c>
+      <c r="U374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>511</v>
       </c>
       <c r="C375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G375" t="s">
+        <v>526</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="M375" t="s">
+        <v>526</v>
+      </c>
+      <c r="O375">
+        <v>0</v>
+      </c>
+      <c r="S375" t="s">
+        <v>547</v>
+      </c>
+      <c r="U375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>0.677477477477477</v>
       </c>
       <c r="C376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G376">
+        <v>0.76492985971943805</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="M376">
+        <v>0.66342685370741405</v>
+      </c>
+      <c r="O376">
+        <v>0</v>
+      </c>
+      <c r="S376">
+        <v>0.68034513895856297</v>
+      </c>
+      <c r="U376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>0.88240986997634097</v>
       </c>
       <c r="C377">
-        <f t="shared" ref="C377:C408" si="232">A376*A377</f>
+        <f t="shared" ref="C377" si="232">A376*A377</f>
         <v>0.59781281281279997</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G377">
+        <v>0.90965417867432796</v>
+      </c>
+      <c r="I377">
+        <f t="shared" ref="I377:I408" si="233">G376*G377</f>
+        <v>0.69582164328655438</v>
+      </c>
+      <c r="M377">
+        <v>0.88392991995164905</v>
+      </c>
+      <c r="O377">
+        <f t="shared" ref="O377:O408" si="234">M376*M377</f>
+        <v>0.58642284569136893</v>
+      </c>
+      <c r="S377">
+        <v>0.840296416457739</v>
+      </c>
+      <c r="U377">
+        <f t="shared" ref="U377:U408" si="235">S376*S377</f>
+        <v>0.57169158222132299</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>5</v>
       </c>
       <c r="C378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G378" t="s">
+        <v>5</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="M378" t="s">
+        <v>5</v>
+      </c>
+      <c r="O378">
+        <v>0</v>
+      </c>
+      <c r="S378" t="s">
+        <v>5</v>
+      </c>
+      <c r="U378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>509</v>
       </c>
       <c r="C379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G379" t="s">
+        <v>509</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="M379" t="s">
+        <v>509</v>
+      </c>
+      <c r="O379">
+        <v>0</v>
+      </c>
+      <c r="S379" t="s">
+        <v>509</v>
+      </c>
+      <c r="U379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>513</v>
       </c>
       <c r="C380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G380" t="s">
+        <v>528</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="M380" t="s">
+        <v>538</v>
+      </c>
+      <c r="O380">
+        <v>0</v>
+      </c>
+      <c r="S380" t="s">
+        <v>549</v>
+      </c>
+      <c r="U380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>511</v>
       </c>
       <c r="C381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G381" t="s">
+        <v>526</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="M381" t="s">
+        <v>526</v>
+      </c>
+      <c r="O381">
+        <v>0</v>
+      </c>
+      <c r="S381" t="s">
+        <v>547</v>
+      </c>
+      <c r="U381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>0.69859859859859796</v>
       </c>
       <c r="C382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G382">
+        <v>0.77745490981963905</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="M382">
+        <v>0.68667334669338598</v>
+      </c>
+      <c r="O382">
+        <v>0</v>
+      </c>
+      <c r="S382">
+        <v>0.69539480284940303</v>
+      </c>
+      <c r="U382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>0.87353489038542698</v>
       </c>
       <c r="C383">
-        <f t="shared" ref="C383:C426" si="233">A382*A383</f>
+        <f t="shared" ref="C383" si="236">A382*A383</f>
         <v>0.61025025025023916</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G383">
+        <v>0.90822700519823896</v>
+      </c>
+      <c r="I383">
+        <f t="shared" ref="I383:I426" si="237">G382*G383</f>
+        <v>0.70610554442215767</v>
+      </c>
+      <c r="M383">
+        <v>0.87793180602167598</v>
+      </c>
+      <c r="O383">
+        <f t="shared" ref="O383:O425" si="238">M382*M383</f>
+        <v>0.60285237140947279</v>
+      </c>
+      <c r="S383">
+        <v>0.85197422209396401</v>
+      </c>
+      <c r="U383">
+        <f t="shared" ref="U383:U426" si="239">S382*S383</f>
+        <v>0.59245844620580557</v>
+      </c>
+    </row>
+    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>7</v>
       </c>
       <c r="C384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G384" t="s">
+        <v>7</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="M384" t="s">
+        <v>7</v>
+      </c>
+      <c r="O384">
+        <v>0</v>
+      </c>
+      <c r="S384" t="s">
+        <v>7</v>
+      </c>
+      <c r="U384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>509</v>
       </c>
       <c r="C385">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G385" t="s">
+        <v>509</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="M385" t="s">
+        <v>509</v>
+      </c>
+      <c r="O385">
+        <v>0</v>
+      </c>
+      <c r="S385" t="s">
+        <v>509</v>
+      </c>
+      <c r="U385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>514</v>
       </c>
       <c r="C386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G386" t="s">
+        <v>529</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="M386" t="s">
+        <v>539</v>
+      </c>
+      <c r="O386">
+        <v>0</v>
+      </c>
+      <c r="S386" t="s">
+        <v>148</v>
+      </c>
+      <c r="U386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>511</v>
       </c>
       <c r="C387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G387" t="s">
+        <v>526</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="M387" t="s">
+        <v>526</v>
+      </c>
+      <c r="O387">
+        <v>0</v>
+      </c>
+      <c r="S387" t="s">
+        <v>547</v>
+      </c>
+      <c r="U387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>0.71521521521521503</v>
       </c>
       <c r="C388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G388">
+        <v>0.79048096192384698</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="M388">
+        <v>0.703006012024048</v>
+      </c>
+      <c r="O388">
+        <v>0</v>
+      </c>
+      <c r="S388">
+        <v>0.71014347346242601</v>
+      </c>
+      <c r="U388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>0.86851644506648595</v>
       </c>
       <c r="C389">
-        <f t="shared" ref="C389:C426" si="234">A388*A389</f>
+        <f t="shared" ref="C389" si="240">A388*A389</f>
         <v>0.62117617617618026</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G389">
+        <v>0.90524147547218903</v>
+      </c>
+      <c r="I389">
+        <f t="shared" ref="I389:I426" si="241">G388*G389</f>
+        <v>0.71557615230461846</v>
+      </c>
+      <c r="M389">
+        <v>0.87513184150513701</v>
+      </c>
+      <c r="O389">
+        <f t="shared" ref="O389:O425" si="242">M388*M389</f>
+        <v>0.61522294589178761</v>
+      </c>
+      <c r="S389">
+        <v>0.85940943769427003</v>
+      </c>
+      <c r="U389">
+        <f t="shared" ref="U389:U426" si="243">S388*S389</f>
+        <v>0.6103040032105993</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>9</v>
       </c>
       <c r="C390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G390" t="s">
+        <v>9</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="M390" t="s">
+        <v>9</v>
+      </c>
+      <c r="O390">
+        <v>0</v>
+      </c>
+      <c r="S390" t="s">
+        <v>9</v>
+      </c>
+      <c r="U390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>509</v>
       </c>
       <c r="C391">
         <v>0</v>
       </c>
-      <c r="D391" t="s">
+      <c r="G391" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="M391" t="s">
+        <v>509</v>
+      </c>
+      <c r="O391">
+        <v>0</v>
+      </c>
+      <c r="S391" t="s">
+        <v>509</v>
+      </c>
+      <c r="U391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>515</v>
       </c>
       <c r="C392">
         <v>0</v>
       </c>
-      <c r="D392" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G392" t="s">
+        <v>530</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="M392" t="s">
+        <v>540</v>
+      </c>
+      <c r="O392">
+        <v>0</v>
+      </c>
+      <c r="S392" t="s">
+        <v>550</v>
+      </c>
+      <c r="U392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>511</v>
       </c>
       <c r="C393">
         <v>0</v>
       </c>
-      <c r="D393" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G393" t="s">
+        <v>526</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="M393" t="s">
+        <v>526</v>
+      </c>
+      <c r="O393">
+        <v>0</v>
+      </c>
+      <c r="S393" t="s">
+        <v>547</v>
+      </c>
+      <c r="U393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>0.72952952952952899</v>
       </c>
       <c r="C394">
         <v>0</v>
       </c>
-      <c r="D394" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G394">
+        <v>0.8</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="M394">
+        <v>0.71963927855711396</v>
+      </c>
+      <c r="O394">
+        <v>0</v>
+      </c>
+      <c r="S394">
+        <v>0.72047757600080198</v>
+      </c>
+      <c r="U394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>0.86527716794729104</v>
       </c>
       <c r="C395">
-        <f t="shared" ref="C395:C426" si="235">A394*A395</f>
+        <f t="shared" ref="C395" si="244">A394*A395</f>
         <v>0.63124524524523051</v>
       </c>
-      <c r="D395" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G395">
+        <v>0.90490480961920705</v>
+      </c>
+      <c r="I395">
+        <f t="shared" ref="I395:I426" si="245">G394*G395</f>
+        <v>0.72392384769536566</v>
+      </c>
+      <c r="M395">
+        <v>0.870417710944006</v>
+      </c>
+      <c r="O395">
+        <f t="shared" ref="O395:O425" si="246">M394*M395</f>
+        <v>0.62638677354707906</v>
+      </c>
+      <c r="S395">
+        <v>0.86442835259711603</v>
+      </c>
+      <c r="U395">
+        <f t="shared" ref="U395:U426" si="247">S394*S395</f>
+        <v>0.62280124410553672</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>11</v>
       </c>
       <c r="C396">
         <v>0</v>
       </c>
-      <c r="D396" t="s">
+      <c r="G396" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="M396" t="s">
+        <v>11</v>
+      </c>
+      <c r="O396">
+        <v>0</v>
+      </c>
+      <c r="S396" t="s">
+        <v>11</v>
+      </c>
+      <c r="U396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>509</v>
       </c>
       <c r="C397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G397" t="s">
+        <v>509</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="M397" t="s">
+        <v>509</v>
+      </c>
+      <c r="O397">
+        <v>0</v>
+      </c>
+      <c r="S397" t="s">
+        <v>509</v>
+      </c>
+      <c r="U397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>516</v>
       </c>
       <c r="C398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G398" t="s">
+        <v>531</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="M398" t="s">
+        <v>541</v>
+      </c>
+      <c r="O398">
+        <v>0</v>
+      </c>
+      <c r="S398" t="s">
+        <v>551</v>
+      </c>
+      <c r="U398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>511</v>
       </c>
       <c r="C399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G399" t="s">
+        <v>526</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="M399" t="s">
+        <v>526</v>
+      </c>
+      <c r="O399">
+        <v>0</v>
+      </c>
+      <c r="S399" t="s">
+        <v>547</v>
+      </c>
+      <c r="U399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>0.74264264264264201</v>
       </c>
       <c r="C400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G400">
+        <v>0.80911823647294501</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="M400">
+        <v>0.73096192384769498</v>
+      </c>
+      <c r="O400">
+        <v>0</v>
+      </c>
+      <c r="S400">
+        <v>0.72990869870572805</v>
+      </c>
+      <c r="U400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>0.86278474187894905</v>
       </c>
       <c r="C401">
-        <f t="shared" ref="C401:C426" si="236">A400*A401</f>
+        <f t="shared" ref="C401" si="248">A400*A401</f>
         <v>0.64074074074073251</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G401">
+        <v>0.90400825593394096</v>
+      </c>
+      <c r="I401">
+        <f t="shared" ref="I401:I426" si="249">G400*G401</f>
+        <v>0.73144956579825304</v>
+      </c>
+      <c r="M401">
+        <v>0.86991546721497803</v>
+      </c>
+      <c r="O401">
+        <f t="shared" ref="O401:O425" si="250">M400*M401</f>
+        <v>0.63587508350032673</v>
+      </c>
+      <c r="S401">
+        <v>0.86853608247421998</v>
+      </c>
+      <c r="U401">
+        <f t="shared" ref="U401:U426" si="251">S400*S401</f>
+        <v>0.63395204173772879</v>
+      </c>
+    </row>
+    <row r="402" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>13</v>
       </c>
       <c r="C402">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G402" t="s">
+        <v>13</v>
+      </c>
+      <c r="I402">
+        <v>0</v>
+      </c>
+      <c r="M402" t="s">
+        <v>13</v>
+      </c>
+      <c r="O402">
+        <v>0</v>
+      </c>
+      <c r="S402" t="s">
+        <v>13</v>
+      </c>
+      <c r="U402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>509</v>
       </c>
       <c r="C403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G403" t="s">
+        <v>509</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="M403" t="s">
+        <v>509</v>
+      </c>
+      <c r="O403">
+        <v>0</v>
+      </c>
+      <c r="S403" t="s">
+        <v>509</v>
+      </c>
+      <c r="U403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>517</v>
       </c>
       <c r="C404">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G404" t="s">
+        <v>532</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="M404" t="s">
+        <v>542</v>
+      </c>
+      <c r="O404">
+        <v>0</v>
+      </c>
+      <c r="S404" t="s">
+        <v>552</v>
+      </c>
+      <c r="U404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>511</v>
       </c>
       <c r="C405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G405" t="s">
+        <v>526</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="M405" t="s">
+        <v>526</v>
+      </c>
+      <c r="O405">
+        <v>0</v>
+      </c>
+      <c r="S405" t="s">
+        <v>547</v>
+      </c>
+      <c r="U405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>0.75305305305305303</v>
       </c>
       <c r="C406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G406">
+        <v>0.81593186372745496</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="M406">
+        <v>0.74058116232464899</v>
+      </c>
+      <c r="O406">
+        <v>0</v>
+      </c>
+      <c r="S406">
+        <v>0.73803551720678195</v>
+      </c>
+      <c r="U406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>0.86164524031069101</v>
       </c>
       <c r="C407">
-        <f t="shared" ref="C407:C426" si="237">A406*A407</f>
+        <f t="shared" ref="C407" si="252">A406*A407</f>
         <v>0.64886457886459747</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G407">
+        <v>0.90451921896109999</v>
+      </c>
+      <c r="I407">
+        <f t="shared" ref="I407:I426" si="253">G406*G407</f>
+        <v>0.73802605210423222</v>
+      </c>
+      <c r="M407">
+        <v>0.86914587239309105</v>
+      </c>
+      <c r="O407">
+        <f t="shared" ref="O407:O425" si="254">M406*M407</f>
+        <v>0.64367306040654637</v>
+      </c>
+      <c r="S407">
+        <v>0.869748698827019</v>
+      </c>
+      <c r="U407">
+        <f t="shared" ref="U407:U426" si="255">S406*S407</f>
+        <v>0.64190543077872464</v>
+      </c>
+    </row>
+    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>15</v>
       </c>
       <c r="C408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G408" t="s">
+        <v>15</v>
+      </c>
+      <c r="I408">
+        <v>0</v>
+      </c>
+      <c r="M408" t="s">
+        <v>15</v>
+      </c>
+      <c r="O408">
+        <v>0</v>
+      </c>
+      <c r="S408" t="s">
+        <v>15</v>
+      </c>
+      <c r="U408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>509</v>
       </c>
       <c r="C409">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G409" t="s">
+        <v>509</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="M409" t="s">
+        <v>509</v>
+      </c>
+      <c r="O409">
+        <v>0</v>
+      </c>
+      <c r="S409" t="s">
+        <v>509</v>
+      </c>
+      <c r="U409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>518</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G410" t="s">
+        <v>533</v>
+      </c>
+      <c r="I410">
+        <v>0</v>
+      </c>
+      <c r="M410" t="s">
+        <v>543</v>
+      </c>
+      <c r="O410">
+        <v>0</v>
+      </c>
+      <c r="S410" t="s">
+        <v>553</v>
+      </c>
+      <c r="U410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>511</v>
       </c>
       <c r="C411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G411" t="s">
+        <v>526</v>
+      </c>
+      <c r="I411">
+        <v>0</v>
+      </c>
+      <c r="M411" t="s">
+        <v>526</v>
+      </c>
+      <c r="O411">
+        <v>0</v>
+      </c>
+      <c r="S411" t="s">
+        <v>547</v>
+      </c>
+      <c r="U411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>0.76206206206206195</v>
       </c>
       <c r="C412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G412">
+        <v>0.82174348697394795</v>
+      </c>
+      <c r="I412">
+        <v>0</v>
+      </c>
+      <c r="M412">
+        <v>0.74809619238476899</v>
+      </c>
+      <c r="O412">
+        <v>0</v>
+      </c>
+      <c r="S412">
+        <v>0.745861342430019</v>
+      </c>
+      <c r="U412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>0.86127347957442701</v>
       </c>
       <c r="C413">
-        <f t="shared" ref="C413:C426" si="238">A412*A413</f>
+        <f t="shared" ref="C413" si="256">A412*A413</f>
         <v>0.65634384384385502</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G413">
+        <v>0.905599926838209</v>
+      </c>
+      <c r="I413">
+        <f t="shared" ref="I413:I426" si="257">G412*G413</f>
+        <v>0.74417084168338199</v>
+      </c>
+      <c r="M413">
+        <v>0.87026520225021897</v>
+      </c>
+      <c r="O413">
+        <f t="shared" ref="O413:O425" si="258">M412*M413</f>
+        <v>0.65104208416834974</v>
+      </c>
+      <c r="S413">
+        <v>0.87083837772398098</v>
+      </c>
+      <c r="U413">
+        <f t="shared" ref="U413:U426" si="259">S412*S413</f>
+        <v>0.64952468144878839</v>
+      </c>
+    </row>
+    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>17</v>
       </c>
       <c r="C414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G414" t="s">
+        <v>17</v>
+      </c>
+      <c r="I414">
+        <v>0</v>
+      </c>
+      <c r="M414" t="s">
+        <v>17</v>
+      </c>
+      <c r="O414">
+        <v>0</v>
+      </c>
+      <c r="S414" t="s">
+        <v>17</v>
+      </c>
+      <c r="U414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>509</v>
       </c>
       <c r="C415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G415" t="s">
+        <v>509</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="M415" t="s">
+        <v>509</v>
+      </c>
+      <c r="O415">
+        <v>0</v>
+      </c>
+      <c r="S415" t="s">
+        <v>509</v>
+      </c>
+      <c r="U415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>519</v>
       </c>
       <c r="C416">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G416" t="s">
+        <v>534</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="M416" t="s">
+        <v>544</v>
+      </c>
+      <c r="O416">
+        <v>0</v>
+      </c>
+      <c r="S416" t="s">
+        <v>554</v>
+      </c>
+      <c r="U416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>511</v>
       </c>
       <c r="C417">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G417" t="s">
+        <v>526</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="M417" t="s">
+        <v>526</v>
+      </c>
+      <c r="O417">
+        <v>0</v>
+      </c>
+      <c r="S417" t="s">
+        <v>547</v>
+      </c>
+      <c r="U417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>0.77107107107107098</v>
       </c>
       <c r="C418">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G418">
+        <v>0.82595190380761496</v>
+      </c>
+      <c r="I418">
+        <v>0</v>
+      </c>
+      <c r="M418">
+        <v>0.75681362725450896</v>
+      </c>
+      <c r="O418">
+        <v>0</v>
+      </c>
+      <c r="S418">
+        <v>0.75218220126417101</v>
+      </c>
+      <c r="U418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>0.86021751986961703</v>
       </c>
       <c r="C419">
-        <f t="shared" ref="C419:C426" si="239">A418*A419</f>
+        <f t="shared" ref="C419" si="260">A418*A419</f>
         <v>0.66328884439996594</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G419">
+        <v>0.90748783479587003</v>
+      </c>
+      <c r="I419">
+        <f t="shared" ref="I419:I426" si="261">G418*G419</f>
+        <v>0.74954130483189918</v>
+      </c>
+      <c r="M419">
+        <v>0.86920870294365904</v>
+      </c>
+      <c r="O419">
+        <f t="shared" ref="O419:O425" si="262">M418*M419</f>
+        <v>0.65782899131597761</v>
+      </c>
+      <c r="S419">
+        <v>0.87050523913269895</v>
+      </c>
+      <c r="U419">
+        <f t="shared" ref="U419:U426" si="263">S418*S419</f>
+        <v>0.65477854698282711</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>19</v>
       </c>
       <c r="C420">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G420" t="s">
+        <v>19</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="M420" t="s">
+        <v>19</v>
+      </c>
+      <c r="O420">
+        <v>0</v>
+      </c>
+      <c r="S420" t="s">
+        <v>19</v>
+      </c>
+      <c r="U420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>509</v>
       </c>
       <c r="C421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G421" t="s">
+        <v>509</v>
+      </c>
+      <c r="I421">
+        <v>0</v>
+      </c>
+      <c r="M421" t="s">
+        <v>509</v>
+      </c>
+      <c r="O421">
+        <v>0</v>
+      </c>
+      <c r="S421" t="s">
+        <v>509</v>
+      </c>
+      <c r="U421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>520</v>
       </c>
       <c r="C422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G422" t="s">
+        <v>535</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="M422" t="s">
+        <v>545</v>
+      </c>
+      <c r="O422">
+        <v>0</v>
+      </c>
+      <c r="S422" t="s">
+        <v>555</v>
+      </c>
+      <c r="U422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>511</v>
       </c>
       <c r="C423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G423" t="s">
+        <v>526</v>
+      </c>
+      <c r="I423">
+        <v>0</v>
+      </c>
+      <c r="M423" t="s">
+        <v>526</v>
+      </c>
+      <c r="O423">
+        <v>0</v>
+      </c>
+      <c r="S423" t="s">
+        <v>547</v>
+      </c>
+      <c r="U423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>0.77817817817817803</v>
       </c>
       <c r="C424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G424">
+        <v>0.83076152304609197</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="M424">
+        <v>0.7625250501002</v>
+      </c>
+      <c r="O424">
+        <v>0</v>
+      </c>
+      <c r="S424">
+        <v>0.75749974917226803</v>
+      </c>
+      <c r="U424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>0.86005016722404903</v>
       </c>
       <c r="C425">
-        <f t="shared" ref="C425:C426" si="240">A424*A425</f>
+        <f t="shared" ref="C425" si="264">A424*A425</f>
         <v>0.66927227227224784</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G425">
+        <v>0.90794717163185201</v>
+      </c>
+      <c r="I425">
+        <f t="shared" ref="I425:I426" si="265">G424*G425</f>
+        <v>0.7542875751502689</v>
+      </c>
+      <c r="M425">
+        <v>0.87056241787119104</v>
+      </c>
+      <c r="O425">
+        <f t="shared" ref="O425" si="266">M424*M425</f>
+        <v>0.6638256513025812</v>
+      </c>
+      <c r="S425">
+        <v>0.86991523178805497</v>
+      </c>
+      <c r="U425">
+        <f t="shared" ref="U425:U426" si="267">S424*S425</f>
+        <v>0.65896056988058704</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>21</v>
       </c>
       <c r="C426">
         <v>0</v>
+      </c>
+      <c r="G426" t="s">
+        <v>21</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="M426" t="s">
+        <v>21</v>
+      </c>
+      <c r="O426">
+        <v>0</v>
+      </c>
+      <c r="S426" t="s">
+        <v>21</v>
+      </c>
+      <c r="U426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -12411,28 +13635,28 @@
         <v>0.64808996786862205</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C75" si="0">A11*A12</f>
+        <f t="shared" ref="C12" si="0">A11*A12</f>
         <v>3.7244562987279642E-2</v>
       </c>
       <c r="F12">
         <v>0.697091656874267</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12:H75" si="1">F11*F12</f>
+        <f t="shared" ref="H12" si="1">F11*F12</f>
         <v>2.4816457152419001E-2</v>
       </c>
       <c r="K12">
         <v>0.67983697983698099</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M75" si="2">K11*K12</f>
+        <f t="shared" ref="M12" si="2">K11*K12</f>
         <v>3.3285723287613735E-2</v>
       </c>
       <c r="Q12">
         <v>0.66625608272506298</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S75" si="3">Q11*Q12</f>
+        <f t="shared" ref="S12" si="3">Q11*Q12</f>
         <v>4.6999570907530687E-2</v>
       </c>
     </row>
@@ -12571,28 +13795,28 @@
         <v>0.65880475776037295</v>
       </c>
       <c r="C18">
-        <f t="shared" ref="C18:C81" si="4">A17*A18</f>
+        <f t="shared" ref="C18" si="4">A17*A18</f>
         <v>4.6592121460812534E-2</v>
       </c>
       <c r="F18">
         <v>0.68730615507593895</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H81" si="5">F17*F18</f>
+        <f t="shared" ref="H18" si="5">F17*F18</f>
         <v>2.9974133182734015E-2</v>
       </c>
       <c r="K18">
         <v>0.66558219178082201</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M81" si="6">K17*K18</f>
+        <f t="shared" ref="M18" si="6">K17*K18</f>
         <v>4.0822113465941265E-2</v>
       </c>
       <c r="Q18">
         <v>0.65337496997358002</v>
       </c>
       <c r="S18">
-        <f t="shared" ref="S18:S81" si="7">Q17*Q18</f>
+        <f t="shared" ref="S18" si="7">Q17*Q18</f>
         <v>5.8356575842094215E-2</v>
       </c>
     </row>
@@ -12731,28 +13955,28 @@
         <v>0.65482814045499105</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C87" si="8">A23*A24</f>
+        <f t="shared" ref="C24" si="8">A23*A24</f>
         <v>5.4331657775953675E-2</v>
       </c>
       <c r="F24">
         <v>0.68134328358208895</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24:H87" si="9">F23*F24</f>
+        <f t="shared" ref="H24" si="9">F23*F24</f>
         <v>3.4374280993118365E-2</v>
       </c>
       <c r="K24">
         <v>0.66575332348596505</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M87" si="10">K23*K24</f>
+        <f t="shared" ref="M24" si="10">K23*K24</f>
         <v>4.7335062698229083E-2</v>
       </c>
       <c r="Q24">
         <v>0.647082995129866</v>
       </c>
       <c r="S24">
-        <f t="shared" ref="S24:S87" si="11">Q23*Q24</f>
+        <f t="shared" ref="S24" si="11">Q23*Q24</f>
         <v>6.8415039691052587E-2</v>
       </c>
     </row>
@@ -12891,28 +14115,28 @@
         <v>0.64688297642224202</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:C93" si="12">A29*A30</f>
+        <f t="shared" ref="C30" si="12">A29*A30</f>
         <v>6.1356996306935217E-2</v>
       </c>
       <c r="F30">
         <v>0.67763703703703904</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H93" si="13">F29*F30</f>
+        <f t="shared" ref="H30" si="13">F29*F30</f>
         <v>3.8269363508962859E-2</v>
       </c>
       <c r="K30">
         <v>0.66747950277704804</v>
       </c>
       <c r="M30">
-        <f t="shared" ref="M30:M93" si="14">K29*K30</f>
+        <f t="shared" ref="M30" si="14">K29*K30</f>
         <v>5.3009725051986319E-2</v>
       </c>
       <c r="Q30">
         <v>0.64372325249644202</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30:S93" si="15">Q29*Q30</f>
+        <f t="shared" ref="S30" si="15">Q29*Q30</f>
         <v>7.74511907316036E-2</v>
       </c>
     </row>
@@ -13051,28 +14275,28 @@
         <v>0.64553345036083098</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:C99" si="16">A35*A36</f>
+        <f t="shared" ref="C36" si="16">A35*A36</f>
         <v>6.7904185473942405E-2</v>
       </c>
       <c r="F36">
         <v>0.67560329273793696</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36:H99" si="17">F35*F36</f>
+        <f t="shared" ref="H36" si="17">F35*F36</f>
         <v>4.177212100929404E-2</v>
       </c>
       <c r="K36">
         <v>0.67008557358520704</v>
       </c>
       <c r="M36">
-        <f t="shared" ref="M36:M99" si="18">K35*K36</f>
+        <f t="shared" ref="M36" si="18">K35*K36</f>
         <v>5.8114712204274825E-2</v>
       </c>
       <c r="Q36">
         <v>0.64306739585008599</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36:S99" si="19">Q35*Q36</f>
+        <f t="shared" ref="S36" si="19">Q35*Q36</f>
         <v>8.5774511907315582E-2</v>
       </c>
     </row>
@@ -13211,28 +14435,28 @@
         <v>0.64538733115022795</v>
       </c>
       <c r="C42">
-        <f t="shared" ref="C42:C105" si="20">A41*A42</f>
+        <f t="shared" ref="C42" si="20">A41*A42</f>
         <v>7.3940148895011257E-2</v>
       </c>
       <c r="F42">
         <v>0.67839128085029698</v>
       </c>
       <c r="H42">
-        <f t="shared" ref="H42:H105" si="21">F41*F42</f>
+        <f t="shared" ref="H42" si="21">F41*F42</f>
         <v>4.5009457274930283E-2</v>
       </c>
       <c r="K42">
         <v>0.67081916736160196</v>
       </c>
       <c r="M42">
-        <f t="shared" ref="M42:M105" si="22">K41*K42</f>
+        <f t="shared" ref="M42" si="22">K41*K42</f>
         <v>6.2757641862433017E-2</v>
       </c>
       <c r="Q42">
         <v>0.645518248793295</v>
       </c>
       <c r="S42">
-        <f t="shared" ref="S42:S105" si="23">Q41*Q42</f>
+        <f t="shared" ref="S42" si="23">Q41*Q42</f>
         <v>9.3455420357372782E-2</v>
       </c>
     </row>
@@ -13371,28 +14595,28 @@
         <v>0.64858533935138796</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:C111" si="24">A47*A48</f>
+        <f t="shared" ref="C48" si="24">A47*A48</f>
         <v>7.9602739023388838E-2</v>
       </c>
       <c r="F48">
         <v>0.67034213597898795</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48:H111" si="25">F47*F48</f>
+        <f t="shared" ref="H48" si="25">F47*F48</f>
         <v>4.8050837708381082E-2</v>
       </c>
       <c r="K48">
         <v>0.67198620762265904</v>
       </c>
       <c r="M48">
-        <f t="shared" ref="M48:M111" si="26">K47*K48</f>
+        <f t="shared" ref="M48" si="26">K47*K48</f>
         <v>6.7030655968409458E-2</v>
       </c>
       <c r="Q48">
         <v>0.64559420589045002</v>
       </c>
       <c r="S48">
-        <f t="shared" ref="S48:S111" si="27">Q47*Q48</f>
+        <f t="shared" ref="S48" si="27">Q47*Q48</f>
         <v>0.1006412250589999</v>
       </c>
     </row>
@@ -13531,28 +14755,28 @@
         <v>0.64513867248364298</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:C117" si="28">A53*A54</f>
+        <f t="shared" ref="C54" si="28">A53*A54</f>
         <v>8.4950759130078352E-2</v>
       </c>
       <c r="F54">
         <v>0.67075379344101804</v>
       </c>
       <c r="H54">
-        <f t="shared" ref="H54:H117" si="29">F53*F54</f>
+        <f t="shared" ref="H54" si="29">F53*F54</f>
         <v>5.0956467982550872E-2</v>
       </c>
       <c r="K54">
         <v>0.67090219930362904</v>
       </c>
       <c r="M54">
-        <f t="shared" ref="M54:M117" si="30">K53*K54</f>
+        <f t="shared" ref="M54" si="30">K53*K54</f>
         <v>7.1051458524415245E-2</v>
       </c>
       <c r="Q54">
         <v>0.64811073699962796</v>
       </c>
       <c r="S54">
-        <f t="shared" ref="S54:S117" si="31">Q53*Q54</f>
+        <f t="shared" ref="S54" si="31">Q53*Q54</f>
         <v>0.10737419247181129</v>
       </c>
     </row>
@@ -13691,28 +14915,28 @@
         <v>0.643889133303999</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C123" si="32">A59*A60</f>
+        <f t="shared" ref="C60" si="32">A59*A60</f>
         <v>9.0083709478866333E-2</v>
       </c>
       <c r="F60">
         <v>0.66639076284379595</v>
       </c>
       <c r="H60">
-        <f t="shared" ref="H60:H123" si="33">F59*F60</f>
+        <f t="shared" ref="H60" si="33">F59*F60</f>
         <v>5.3719383379698116E-2</v>
       </c>
       <c r="K60">
         <v>0.66683747896016099</v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:M123" si="34">K59*K60</f>
+        <f t="shared" ref="M60" si="34">K59*K60</f>
         <v>7.4892982419289683E-2</v>
       </c>
       <c r="Q60">
         <v>0.64914891011510401</v>
       </c>
       <c r="S60">
-        <f t="shared" ref="S60:S123" si="35">Q59*Q60</f>
+        <f t="shared" ref="S60" si="35">Q59*Q60</f>
         <v>0.11372988629049426</v>
       </c>
     </row>
@@ -13851,28 +15075,28 @@
         <v>0.90210191082803004</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C129" si="36">A65*A66</f>
+        <f t="shared" ref="C66" si="36">A65*A66</f>
         <v>5.8116536725482441E-2</v>
       </c>
       <c r="F66">
         <v>0.88869309838473098</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H129" si="37">F65*F66</f>
+        <f t="shared" ref="H66" si="37">F65*F66</f>
         <v>6.3293522140182981E-2</v>
       </c>
       <c r="K66">
         <v>0.80624584717608605</v>
       </c>
       <c r="M66">
-        <f t="shared" ref="M66:M129" si="38">K65*K66</f>
+        <f t="shared" ref="M66" si="38">K65*K66</f>
         <v>5.0973555420194036E-2</v>
       </c>
       <c r="Q66">
         <v>0.90033984706882497</v>
       </c>
       <c r="S66">
-        <f t="shared" ref="S66:S129" si="39">Q65*Q66</f>
+        <f t="shared" ref="S66" si="39">Q65*Q66</f>
         <v>6.8206393477794849E-2</v>
       </c>
     </row>
@@ -14011,28 +15235,28 @@
         <v>0.87394485087225404</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C135" si="40">A71*A72</f>
+        <f t="shared" ref="C72" si="40">A71*A72</f>
         <v>6.3725892490767072E-2</v>
       </c>
       <c r="F72">
         <v>0.84818250188016797</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72:H135" si="41">F71*F72</f>
+        <f t="shared" ref="H72" si="41">F71*F72</f>
         <v>7.0769102051914667E-2</v>
       </c>
       <c r="K72">
         <v>0.80598768886401895</v>
       </c>
       <c r="M72">
-        <f t="shared" ref="M72:M135" si="42">K71*K72</f>
+        <f t="shared" ref="M72" si="42">K71*K72</f>
         <v>6.0505366632359475E-2</v>
       </c>
       <c r="Q72">
         <v>0.83700399154730898</v>
       </c>
       <c r="S72">
-        <f t="shared" ref="S72:S135" si="43">Q71*Q72</f>
+        <f t="shared" ref="S72" si="43">Q71*Q72</f>
         <v>7.6481441750696988E-2</v>
       </c>
     </row>
@@ -14171,28 +15395,28 @@
         <v>0.85134050546448503</v>
       </c>
       <c r="C78">
-        <f t="shared" ref="C78:C141" si="44">A77*A78</f>
+        <f t="shared" ref="C78" si="44">A77*A78</f>
         <v>6.819108193133662E-2</v>
       </c>
       <c r="F78">
         <v>0.82609446572051004</v>
       </c>
       <c r="H78">
-        <f t="shared" ref="H78:H141" si="45">F77*F78</f>
+        <f t="shared" ref="H78" si="45">F77*F78</f>
         <v>7.6701736772016596E-2</v>
       </c>
       <c r="K78">
         <v>0.79616695767856605</v>
       </c>
       <c r="M78">
-        <f t="shared" ref="M78:M141" si="46">K77*K78</f>
+        <f t="shared" ref="M78" si="46">K77*K78</f>
         <v>6.7042645998306435E-2</v>
       </c>
       <c r="Q78">
         <v>0.83174022246142998</v>
       </c>
       <c r="S78">
-        <f t="shared" ref="S78:S141" si="47">Q77*Q78</f>
+        <f t="shared" ref="S78" si="47">Q77*Q78</f>
         <v>8.2888507473360643E-2</v>
       </c>
     </row>
@@ -14331,28 +15555,28 @@
         <v>0.84014607279692899</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:C147" si="48">A83*A84</f>
+        <f t="shared" ref="C84" si="48">A83*A84</f>
         <v>7.1982970865818119E-2</v>
       </c>
       <c r="F84">
         <v>0.80921242774565905</v>
       </c>
       <c r="H84">
-        <f t="shared" ref="H84:H147" si="49">F83*F84</f>
+        <f t="shared" ref="H84" si="49">F83*F84</f>
         <v>8.1989269802756198E-2</v>
       </c>
       <c r="K84">
         <v>0.78260081558675798</v>
       </c>
       <c r="M84">
-        <f t="shared" ref="M84:M147" si="50">K83*K84</f>
+        <f t="shared" ref="M84" si="50">K83*K84</f>
         <v>7.2557709676740731E-2</v>
       </c>
       <c r="Q84">
         <v>0.82377608346709397</v>
       </c>
       <c r="S84">
-        <f t="shared" ref="S84:S147" si="51">Q83*Q84</f>
+        <f t="shared" ref="S84" si="51">Q83*Q84</f>
         <v>8.8086247586354235E-2</v>
       </c>
     </row>
@@ -14491,28 +15715,28 @@
         <v>0.83045701357466495</v>
       </c>
       <c r="C90">
-        <f t="shared" ref="C90:C153" si="52">A89*A90</f>
+        <f t="shared" ref="C90" si="52">A89*A90</f>
         <v>7.5310217480509159E-2</v>
       </c>
       <c r="F90">
         <v>0.79277140672783397</v>
       </c>
       <c r="H90">
-        <f t="shared" ref="H90:H153" si="53">F89*F90</f>
+        <f t="shared" ref="H90" si="53">F89*F90</f>
         <v>8.6757305109917027E-2</v>
       </c>
       <c r="K90">
         <v>0.77574046766379601</v>
       </c>
       <c r="M90">
-        <f t="shared" ref="M90:M153" si="54">K89*K90</f>
+        <f t="shared" ref="M90" si="54">K89*K90</f>
         <v>7.7347560335231505E-2</v>
       </c>
       <c r="Q90">
         <v>0.81396532227666796</v>
       </c>
       <c r="S90">
-        <f t="shared" ref="S90:S153" si="55">Q89*Q90</f>
+        <f t="shared" ref="S90" si="55">Q89*Q90</f>
         <v>9.2660373310447616E-2</v>
       </c>
     </row>
@@ -14651,28 +15875,28 @@
         <v>0.81991695303550305</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:C159" si="56">A95*A96</f>
+        <f t="shared" ref="C96" si="56">A95*A96</f>
         <v>7.832444262070784E-2</v>
       </c>
       <c r="F96">
         <v>0.78245362058646994</v>
       </c>
       <c r="H96">
-        <f t="shared" ref="H96:H159" si="57">F95*F96</f>
+        <f t="shared" ref="H96" si="57">F95*F96</f>
         <v>9.1159962907959177E-2</v>
       </c>
       <c r="K96">
         <v>0.76886120996440299</v>
       </c>
       <c r="M96">
-        <f t="shared" ref="M96:M159" si="58">K95*K96</f>
+        <f t="shared" ref="M96" si="58">K95*K96</f>
         <v>8.1684135352557891E-2</v>
       </c>
       <c r="Q96">
         <v>0.81117311731172803</v>
       </c>
       <c r="S96">
-        <f t="shared" ref="S96:S159" si="59">Q95*Q96</f>
+        <f t="shared" ref="S96" si="59">Q95*Q96</f>
         <v>9.6675963670170451E-2</v>
       </c>
     </row>
@@ -14811,28 +16035,28 @@
         <v>0.81220170829786997</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:C165" si="60">A101*A102</f>
+        <f t="shared" ref="C102" si="60">A101*A102</f>
         <v>8.1103523067003122E-2</v>
       </c>
       <c r="F102">
         <v>0.77310582190121002</v>
       </c>
       <c r="H102">
-        <f t="shared" ref="H102:H165" si="61">F101*F102</f>
+        <f t="shared" ref="H102" si="61">F101*F102</f>
         <v>9.5310207581955714E-2</v>
       </c>
       <c r="K102">
         <v>0.76359162275658299</v>
       </c>
       <c r="M102">
-        <f t="shared" ref="M102:M165" si="62">K101*K102</f>
+        <f t="shared" ref="M102" si="62">K101*K102</f>
         <v>8.5663274951015209E-2</v>
       </c>
       <c r="Q102">
         <v>0.80467912466192704</v>
       </c>
       <c r="S102">
-        <f t="shared" ref="S102:S165" si="63">Q101*Q102</f>
+        <f t="shared" ref="S102" si="63">Q101*Q102</f>
         <v>0.10030434915867367</v>
       </c>
     </row>
@@ -14971,28 +16195,28 @@
         <v>0.80680604982206705</v>
       </c>
       <c r="C108">
-        <f t="shared" ref="C108:C171" si="64">A107*A108</f>
+        <f t="shared" ref="C108" si="64">A107*A108</f>
         <v>8.3726405416495703E-2</v>
       </c>
       <c r="F108">
         <v>0.76892631322957405</v>
       </c>
       <c r="H108">
-        <f t="shared" ref="H108:H171" si="65">F107*F108</f>
+        <f t="shared" ref="H108" si="65">F107*F108</f>
         <v>9.9201771632956112E-2</v>
       </c>
       <c r="K108">
         <v>0.764040880503149</v>
       </c>
       <c r="M108">
-        <f t="shared" ref="M108:M171" si="66">K107*K108</f>
+        <f t="shared" ref="M108" si="66">K107*K108</f>
         <v>8.9308481589615366E-2</v>
       </c>
       <c r="Q108">
         <v>0.80066705336427102</v>
       </c>
       <c r="S108">
-        <f t="shared" ref="S108:S171" si="67">Q107*Q108</f>
+        <f t="shared" ref="S108" si="67">Q107*Q108</f>
         <v>0.10365211328041166</v>
       </c>
     </row>
@@ -15131,28 +16355,28 @@
         <v>0.79681727224855703</v>
       </c>
       <c r="C114">
-        <f t="shared" ref="C114:C177" si="68">A113*A114</f>
+        <f t="shared" ref="C114" si="68">A113*A114</f>
         <v>8.6237404823781491E-2</v>
       </c>
       <c r="F114">
         <v>0.76928268280804502</v>
       </c>
       <c r="H114">
-        <f t="shared" ref="H114:H177" si="69">F113*F114</f>
+        <f t="shared" ref="H114" si="69">F113*F114</f>
         <v>0.1027877131455957</v>
       </c>
       <c r="K114">
         <v>0.76178744795564801</v>
       </c>
       <c r="M114">
-        <f t="shared" ref="M114:M177" si="70">K113*K114</f>
+        <f t="shared" ref="M114" si="70">K113*K114</f>
         <v>9.2661284864439961E-2</v>
       </c>
       <c r="Q114">
         <v>0.79921488856771405</v>
       </c>
       <c r="S114">
-        <f t="shared" ref="S114:S177" si="71">Q113*Q114</f>
+        <f t="shared" ref="S114" si="71">Q113*Q114</f>
         <v>0.10677346301461334</v>
       </c>
     </row>
@@ -15291,28 +16515,28 @@
         <v>0.79549456621844905</v>
       </c>
       <c r="C120">
-        <f t="shared" ref="C120:C183" si="72">A119*A120</f>
+        <f t="shared" ref="C120" si="72">A119*A120</f>
         <v>8.8607714402953106E-2</v>
       </c>
       <c r="F120">
         <v>0.76487040385773997</v>
       </c>
       <c r="H120">
-        <f t="shared" ref="H120:H183" si="73">F119*F120</f>
+        <f t="shared" ref="H120" si="73">F119*F120</f>
         <v>0.10616578468489117</v>
       </c>
       <c r="K120">
         <v>0.76119158878503401</v>
       </c>
       <c r="M120">
-        <f t="shared" ref="M120:M183" si="74">K119*K120</f>
+        <f t="shared" ref="M120" si="74">K119*K120</f>
         <v>9.5802474322079764E-2</v>
       </c>
       <c r="Q120">
         <v>0.79765605493132596</v>
       </c>
       <c r="S120">
-        <f t="shared" ref="S120:S183" si="75">Q119*Q120</f>
+        <f t="shared" ref="S120" si="75">Q119*Q120</f>
         <v>0.10966273331902844</v>
       </c>
     </row>
@@ -15451,28 +16675,28 @@
         <v>0.66156824782187895</v>
       </c>
       <c r="C126">
-        <f t="shared" ref="C126:C189" si="76">A125*A126</f>
+        <f t="shared" ref="C126" si="76">A125*A126</f>
         <v>2.8042675420599128E-2</v>
       </c>
       <c r="F126">
         <v>0.65998770743699797</v>
       </c>
       <c r="H126">
-        <f t="shared" ref="H126:H189" si="77">F125*F126</f>
+        <f t="shared" ref="H126" si="77">F125*F126</f>
         <v>2.2460206237319189E-2</v>
       </c>
       <c r="K126">
         <v>0.69270644966847295</v>
       </c>
       <c r="M126">
-        <f t="shared" ref="M126:M189" si="78">K125*K126</f>
+        <f t="shared" ref="M126" si="78">K125*K126</f>
         <v>2.413829317986084E-2</v>
       </c>
       <c r="Q126">
         <v>0.69259425493716298</v>
       </c>
       <c r="S126">
-        <f t="shared" ref="S126:S189" si="79">Q125*Q126</f>
+        <f t="shared" ref="S126" si="79">Q125*Q126</f>
         <v>3.310662947865263E-2</v>
       </c>
     </row>
@@ -15611,28 +16835,28 @@
         <v>0.66401729298304002</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:C195" si="80">A131*A132</f>
+        <f t="shared" ref="C132" si="80">A131*A132</f>
         <v>4.0966352072219915E-2</v>
       </c>
       <c r="F132">
         <v>0.66290391156462702</v>
       </c>
       <c r="H132">
-        <f t="shared" ref="H132:H195" si="81">F131*F132</f>
+        <f t="shared" ref="H132" si="81">F131*F132</f>
         <v>3.2612060490702643E-2</v>
       </c>
       <c r="K132">
         <v>0.665226253567061</v>
       </c>
       <c r="M132">
-        <f t="shared" ref="M132:M195" si="82">K131*K132</f>
+        <f t="shared" ref="M132" si="82">K131*K132</f>
         <v>3.4275032031758662E-2</v>
       </c>
       <c r="Q132">
         <v>0.66760110294117603</v>
       </c>
       <c r="S132">
-        <f t="shared" ref="S132:S195" si="83">Q131*Q132</f>
+        <f t="shared" ref="S132" si="83">Q131*Q132</f>
         <v>4.6750697275262744E-2</v>
       </c>
     </row>
@@ -15771,28 +16995,28 @@
         <v>0.66613570914327203</v>
       </c>
       <c r="C138">
-        <f t="shared" ref="C138:C201" si="84">A137*A138</f>
+        <f t="shared" ref="C138" si="84">A137*A138</f>
         <v>5.0623033784708178E-2</v>
       </c>
       <c r="F138">
         <v>0.64407468423942804</v>
       </c>
       <c r="H138">
-        <f t="shared" ref="H138:H201" si="85">F137*F138</f>
+        <f t="shared" ref="H138" si="85">F137*F138</f>
         <v>4.0887001750019081E-2</v>
       </c>
       <c r="K138">
         <v>0.65465416936005005</v>
       </c>
       <c r="M138">
-        <f t="shared" ref="M138:M201" si="86">K137*K138</f>
+        <f t="shared" ref="M138" si="86">K137*K138</f>
         <v>4.2544476884622519E-2</v>
       </c>
       <c r="Q138">
         <v>0.66304240631164002</v>
       </c>
       <c r="S138">
-        <f t="shared" ref="S138:S201" si="87">Q137*Q138</f>
+        <f t="shared" ref="S138" si="87">Q137*Q138</f>
         <v>5.7697918901523489E-2</v>
       </c>
     </row>
@@ -15931,28 +17155,28 @@
         <v>0.65878812199036796</v>
       </c>
       <c r="C144">
-        <f t="shared" ref="C144:C207" si="88">A143*A144</f>
+        <f t="shared" ref="C144" si="88">A143*A144</f>
         <v>5.8944911776774571E-2</v>
       </c>
       <c r="F144">
         <v>0.64471584546472405</v>
       </c>
       <c r="H144">
-        <f t="shared" ref="H144:H207" si="89">F143*F144</f>
+        <f t="shared" ref="H144" si="89">F143*F144</f>
         <v>4.8169277751050926E-2</v>
       </c>
       <c r="K144">
         <v>0.65087153444962897</v>
       </c>
       <c r="M144">
-        <f t="shared" ref="M144:M207" si="90">K143*K144</f>
+        <f t="shared" ref="M144" si="90">K143*K144</f>
         <v>4.9804133672204751E-2</v>
       </c>
       <c r="Q144">
         <v>0.66992053264604701</v>
       </c>
       <c r="S144">
-        <f t="shared" ref="S144:S207" si="91">Q143*Q144</f>
+        <f t="shared" ref="S144" si="91">Q143*Q144</f>
         <v>6.6920188800686425E-2</v>
       </c>
     </row>
@@ -16091,28 +17315,28 @@
         <v>0.66184722506656501</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="C150:C213" si="92">A149*A150</f>
+        <f t="shared" ref="C150" si="92">A149*A150</f>
         <v>6.6306934755847702E-2</v>
       </c>
       <c r="F150">
         <v>0.64494926998268298</v>
       </c>
       <c r="H150">
-        <f t="shared" ref="H150:H213" si="93">F149*F150</f>
+        <f t="shared" ref="H150" si="93">F149*F150</f>
         <v>5.4513585308205999E-2</v>
       </c>
       <c r="K150">
         <v>0.65885080147966102</v>
       </c>
       <c r="M150">
-        <f t="shared" ref="M150:M213" si="94">K149*K150</f>
+        <f t="shared" ref="M150" si="94">K149*K150</f>
         <v>5.6116280535193415E-2</v>
       </c>
       <c r="Q150">
         <v>0.67241033551871099</v>
       </c>
       <c r="S150">
-        <f t="shared" ref="S150:S213" si="95">Q149*Q150</f>
+        <f t="shared" ref="S150" si="95">Q149*Q150</f>
         <v>7.4814846599442278E-2</v>
       </c>
     </row>
@@ -16251,28 +17475,28 @@
         <v>0.66537932758404805</v>
       </c>
       <c r="C156">
-        <f t="shared" ref="C156:C219" si="96">A155*A156</f>
+        <f t="shared" ref="C156" si="96">A155*A156</f>
         <v>7.2817672001093528E-2</v>
       </c>
       <c r="F156">
         <v>0.64077730937060695</v>
       </c>
       <c r="H156">
-        <f t="shared" ref="H156:H219" si="97">F155*F156</f>
+        <f t="shared" ref="H156" si="97">F155*F156</f>
         <v>6.0406687722674032E-2</v>
       </c>
       <c r="K156">
         <v>0.66041105121293497</v>
       </c>
       <c r="M156">
-        <f t="shared" ref="M156:M219" si="98">K155*K156</f>
+        <f t="shared" ref="M156" si="98">K155*K156</f>
         <v>6.1756180554096582E-2</v>
       </c>
       <c r="Q156">
         <v>0.68648485943049498</v>
       </c>
       <c r="S156">
-        <f t="shared" ref="S156:S219" si="99">Q155*Q156</f>
+        <f t="shared" ref="S156" si="99">Q155*Q156</f>
         <v>8.1550454122862673E-2</v>
       </c>
     </row>
@@ -16411,28 +17635,28 @@
         <v>0.66915601405397496</v>
       </c>
       <c r="C162">
-        <f t="shared" ref="C162:C193" si="100">A161*A162</f>
+        <f t="shared" ref="C162" si="100">A161*A162</f>
         <v>7.8708892666627256E-2</v>
       </c>
       <c r="F162">
         <v>0.64490213861501999</v>
       </c>
       <c r="H162">
-        <f t="shared" ref="H162:H193" si="101">F161*F162</f>
+        <f t="shared" ref="H162" si="101">F161*F162</f>
         <v>6.5867454723108912E-2</v>
       </c>
       <c r="K162">
         <v>0.656769239821135</v>
       </c>
       <c r="M162">
-        <f t="shared" ref="M162:M193" si="102">K161*K162</f>
+        <f t="shared" ref="M162" si="102">K161*K162</f>
         <v>6.6988834644109541E-2</v>
       </c>
       <c r="Q162">
         <v>0.69314985303762999</v>
       </c>
       <c r="S162">
-        <f t="shared" ref="S162:S193" si="103">Q161*Q162</f>
+        <f t="shared" ref="S162" si="103">Q161*Q162</f>
         <v>8.7457933613264857E-2</v>
       </c>
     </row>
@@ -16571,28 +17795,28 @@
         <v>0.67390607007731695</v>
       </c>
       <c r="C168">
-        <f t="shared" ref="C168:C199" si="104">A167*A168</f>
+        <f t="shared" ref="C168" si="104">A167*A168</f>
         <v>8.4051600328272288E-2</v>
       </c>
       <c r="F168">
         <v>0.65010308784043003</v>
       </c>
       <c r="H168">
-        <f t="shared" ref="H168:H199" si="105">F167*F168</f>
+        <f t="shared" ref="H168" si="105">F167*F168</f>
         <v>7.08995691187852E-2</v>
       </c>
       <c r="K168">
         <v>0.65775663206459001</v>
       </c>
       <c r="M168">
-        <f t="shared" ref="M168:M199" si="106">K167*K168</f>
+        <f t="shared" ref="M168" si="106">K167*K168</f>
         <v>7.1869814530865619E-2</v>
       </c>
       <c r="Q168">
         <v>0.69363377685155603</v>
       </c>
       <c r="S168">
-        <f t="shared" ref="S168:S199" si="107">Q167*Q168</f>
+        <f t="shared" ref="S168" si="107">Q167*Q168</f>
         <v>9.2831742115425539E-2</v>
       </c>
     </row>
@@ -16731,28 +17955,28 @@
         <v>0.675217000380405</v>
       </c>
       <c r="C174">
-        <f t="shared" ref="C174:C205" si="108">A173*A174</f>
+        <f t="shared" ref="C174" si="108">A173*A174</f>
         <v>8.902224957826152E-2</v>
       </c>
       <c r="F174">
         <v>0.64739375136726096</v>
       </c>
       <c r="H174">
-        <f t="shared" ref="H174:H205" si="109">F173*F174</f>
+        <f t="shared" ref="H174" si="109">F173*F174</f>
         <v>7.5654978955612254E-2</v>
       </c>
       <c r="K174">
         <v>0.66199724852310804</v>
       </c>
       <c r="M174">
-        <f t="shared" ref="M174:M205" si="110">K173*K174</f>
+        <f t="shared" ref="M174" si="110">K173*K174</f>
         <v>7.6365579804005337E-2</v>
       </c>
       <c r="Q174">
         <v>0.69540709104467802</v>
       </c>
       <c r="S174">
-        <f t="shared" ref="S174:S205" si="111">Q173*Q174</f>
+        <f t="shared" ref="S174" si="111">Q173*Q174</f>
         <v>9.7813535483563419E-2</v>
       </c>
     </row>
@@ -16891,28 +18115,28 @@
         <v>0.67617150473932897</v>
       </c>
       <c r="C180">
-        <f t="shared" ref="C180:C211" si="112">A179*A180</f>
+        <f t="shared" ref="C180" si="112">A179*A180</f>
         <v>9.3670701682394927E-2</v>
       </c>
       <c r="F180">
         <v>0.64854699407281602</v>
       </c>
       <c r="H180">
-        <f t="shared" ref="H180:H211" si="113">F179*F180</f>
+        <f t="shared" ref="H180" si="113">F179*F180</f>
         <v>8.0103536990942595E-2</v>
       </c>
       <c r="K180">
         <v>0.66688402017040005</v>
       </c>
       <c r="M180">
-        <f t="shared" ref="M180:M211" si="114">K179*K180</f>
+        <f t="shared" ref="M180" si="114">K179*K180</f>
         <v>8.0557247579238309E-2</v>
       </c>
       <c r="Q180">
         <v>0.69620935996500399</v>
       </c>
       <c r="S180">
-        <f t="shared" ref="S180:S211" si="115">Q179*Q180</f>
+        <f t="shared" ref="S180" si="115">Q179*Q180</f>
         <v>0.10245226346277539</v>
       </c>
     </row>
@@ -17051,28 +18275,28 @@
         <v>0.82163461538461602</v>
       </c>
       <c r="C186">
-        <f t="shared" ref="C186:C217" si="116">A185*A186</f>
+        <f t="shared" ref="C186" si="116">A185*A186</f>
         <v>4.2076323348379185E-2</v>
       </c>
       <c r="F186">
         <v>0.84225285171102704</v>
       </c>
       <c r="H186">
-        <f t="shared" ref="H186:H217" si="117">F185*F186</f>
+        <f t="shared" ref="H186" si="117">F185*F186</f>
         <v>3.7066242757639742E-2</v>
       </c>
       <c r="K186">
         <v>0.82092032381764002</v>
       </c>
       <c r="M186">
-        <f t="shared" ref="M186:M217" si="118">K185*K186</f>
+        <f t="shared" ref="M186" si="118">K185*K186</f>
         <v>4.0469239009430995E-2</v>
       </c>
       <c r="Q186">
         <v>0.84898167006110004</v>
       </c>
       <c r="S186">
-        <f t="shared" ref="S186:S217" si="119">Q185*Q186</f>
+        <f t="shared" ref="S186" si="119">Q185*Q186</f>
         <v>5.3660158764213706E-2</v>
       </c>
     </row>
@@ -17211,28 +18435,28 @@
         <v>0.78106734434561598</v>
       </c>
       <c r="C192">
-        <f t="shared" ref="C192:C223" si="120">A191*A192</f>
+        <f t="shared" ref="C192" si="120">A191*A192</f>
         <v>5.0447271235125095E-2</v>
       </c>
       <c r="F192">
         <v>0.79252177205604002</v>
       </c>
       <c r="H192">
-        <f t="shared" ref="H192:H223" si="121">F191*F192</f>
+        <f t="shared" ref="H192" si="121">F191*F192</f>
         <v>4.3779413917881593E-2</v>
       </c>
       <c r="K192">
         <v>0.79218750000000104</v>
       </c>
       <c r="M192">
-        <f t="shared" ref="M192:M223" si="122">K191*K192</f>
+        <f t="shared" ref="M192" si="122">K191*K192</f>
         <v>4.8454073809573832E-2</v>
       </c>
       <c r="Q192">
         <v>0.80858404637041104</v>
       </c>
       <c r="S192">
-        <f t="shared" ref="S192:S223" si="123">Q191*Q192</f>
+        <f t="shared" ref="S192" si="123">Q191*Q192</f>
         <v>6.2851319459343469E-2</v>
       </c>
     </row>
@@ -17371,28 +18595,28 @@
         <v>0.74907679957185203</v>
       </c>
       <c r="C198">
-        <f t="shared" ref="C198:C229" si="124">A197*A198</f>
+        <f t="shared" ref="C198" si="124">A197*A198</f>
         <v>5.7433319655314077E-2</v>
       </c>
       <c r="F198">
         <v>0.76313573048267203</v>
       </c>
       <c r="H198">
-        <f t="shared" ref="H198:H229" si="125">F197*F198</f>
+        <f t="shared" ref="H198" si="125">F197*F198</f>
         <v>4.9275241063398222E-2</v>
       </c>
       <c r="K198">
         <v>0.770552086430768</v>
       </c>
       <c r="M198">
-        <f t="shared" ref="M198:M229" si="126">K197*K198</f>
+        <f t="shared" ref="M198" si="126">K197*K198</f>
         <v>5.4430184768986346E-2</v>
       </c>
       <c r="Q198">
         <v>0.78884043927648995</v>
       </c>
       <c r="S198">
-        <f t="shared" ref="S198:S229" si="127">Q197*Q198</f>
+        <f t="shared" ref="S198" si="127">Q197*Q198</f>
         <v>6.9863405563899347E-2</v>
       </c>
     </row>
@@ -17531,28 +18755,28 @@
         <v>0.72949425017601099</v>
       </c>
       <c r="C204">
-        <f t="shared" ref="C204:C235" si="128">A203*A204</f>
+        <f t="shared" ref="C204" si="128">A203*A204</f>
         <v>6.3774620434960655E-2</v>
       </c>
       <c r="F204">
         <v>0.74365671641790898</v>
       </c>
       <c r="H204">
-        <f t="shared" ref="H204:H235" si="129">F203*F204</f>
+        <f t="shared" ref="H204" si="129">F203*F204</f>
         <v>5.4192725219100901E-2</v>
       </c>
       <c r="K204">
         <v>0.756936300639653</v>
       </c>
       <c r="M204">
-        <f t="shared" ref="M204:M235" si="130">K203*K204</f>
+        <f t="shared" ref="M204" si="130">K203*K204</f>
         <v>5.9653111806590685E-2</v>
       </c>
       <c r="Q204">
         <v>0.77450711938663497</v>
       </c>
       <c r="S204">
-        <f t="shared" ref="S204:S235" si="131">Q203*Q204</f>
+        <f t="shared" ref="S204" si="131">Q203*Q204</f>
         <v>7.5855503110920139E-2</v>
       </c>
     </row>
@@ -17691,28 +18915,28 @@
         <v>0.71462931760741699</v>
       </c>
       <c r="C210">
-        <f t="shared" ref="C210:C241" si="132">A209*A210</f>
+        <f t="shared" ref="C210" si="132">A209*A210</f>
         <v>6.9615510874025732E-2</v>
       </c>
       <c r="F210">
         <v>0.73526302015179801</v>
       </c>
       <c r="H210">
-        <f t="shared" ref="H210:H241" si="133">F209*F210</f>
+        <f t="shared" ref="H210" si="133">F209*F210</f>
         <v>5.8763831077830918E-2</v>
       </c>
       <c r="K210">
         <v>0.75403751233959204</v>
       </c>
       <c r="M210">
-        <f t="shared" ref="M210:M241" si="134">K209*K210</f>
+        <f t="shared" ref="M210" si="134">K209*K210</f>
         <v>6.4176101157344734E-2</v>
       </c>
       <c r="Q210">
         <v>0.76090836012862295</v>
       </c>
       <c r="S210">
-        <f t="shared" ref="S210:S241" si="135">Q209*Q210</f>
+        <f t="shared" ref="S210" si="135">Q209*Q210</f>
         <v>8.1233211757133647E-2</v>
       </c>
     </row>
@@ -17851,28 +19075,28 @@
         <v>0.70806545313710101</v>
       </c>
       <c r="C216">
-        <f t="shared" ref="C216:C247" si="136">A215*A216</f>
+        <f t="shared" ref="C216" si="136">A215*A216</f>
         <v>7.5019491177676839E-2</v>
       </c>
       <c r="F216">
         <v>0.72557457409193005</v>
       </c>
       <c r="H216">
-        <f t="shared" ref="H216:H247" si="137">F215*F216</f>
+        <f t="shared" ref="H216" si="137">F215*F216</f>
         <v>6.2952233540407118E-2</v>
       </c>
       <c r="K216">
         <v>0.75220213259155899</v>
       </c>
       <c r="M216">
-        <f t="shared" ref="M216:M247" si="138">K215*K216</f>
+        <f t="shared" ref="M216" si="138">K215*K216</f>
         <v>6.8159381629523452E-2</v>
       </c>
       <c r="Q216">
         <v>0.75156444776863196</v>
       </c>
       <c r="S216">
-        <f t="shared" ref="S216:S247" si="139">Q215*Q216</f>
+        <f t="shared" ref="S216" si="139">Q215*Q216</f>
         <v>8.6233998426660463E-2</v>
       </c>
     </row>
@@ -18011,28 +19235,28 @@
         <v>0.69892409915665898</v>
       </c>
       <c r="C222">
-        <f t="shared" ref="C222:C253" si="140">A221*A222</f>
+        <f t="shared" ref="C222" si="140">A221*A222</f>
         <v>8.0159739726830007E-2</v>
       </c>
       <c r="F222">
         <v>0.72580068862470104</v>
       </c>
       <c r="H222">
-        <f t="shared" ref="H222:H253" si="141">F221*F222</f>
+        <f t="shared" ref="H222" si="141">F221*F222</f>
         <v>6.6767165775720727E-2</v>
       </c>
       <c r="K222">
         <v>0.74767216597925601</v>
       </c>
       <c r="M222">
-        <f t="shared" ref="M222:M253" si="142">K221*K222</f>
+        <f t="shared" ref="M222" si="142">K221*K222</f>
         <v>7.1800649937137015E-2</v>
       </c>
       <c r="Q222">
         <v>0.74680663373324097</v>
       </c>
       <c r="S222">
-        <f t="shared" ref="S222:S253" si="143">Q221*Q222</f>
+        <f t="shared" ref="S222" si="143">Q221*Q222</f>
         <v>9.0815275691911376E-2</v>
       </c>
     </row>
@@ -18171,28 +19395,28 @@
         <v>0.69735014312173804</v>
       </c>
       <c r="C228">
-        <f t="shared" ref="C228:C259" si="144">A227*A228</f>
+        <f t="shared" ref="C228" si="144">A227*A228</f>
         <v>8.4972558473532966E-2</v>
       </c>
       <c r="F228">
         <v>0.72108537108537396</v>
       </c>
       <c r="H228">
-        <f t="shared" ref="H228:H259" si="145">F227*F228</f>
+        <f t="shared" ref="H228" si="145">F227*F228</f>
         <v>7.0315212616871542E-2</v>
       </c>
       <c r="K228">
         <v>0.743608515057116</v>
       </c>
       <c r="M228">
-        <f t="shared" ref="M228:M259" si="146">K227*K228</f>
+        <f t="shared" ref="M228" si="146">K227*K228</f>
         <v>7.5205843432963909E-2</v>
       </c>
       <c r="Q228">
         <v>0.73351512146752695</v>
       </c>
       <c r="S228">
-        <f t="shared" ref="S228:S259" si="147">Q227*Q228</f>
+        <f t="shared" ref="S228" si="147">Q227*Q228</f>
         <v>9.5226346277622401E-2</v>
       </c>
     </row>
@@ -18331,28 +19555,28 @@
         <v>0.69443294592156501</v>
       </c>
       <c r="C234">
-        <f t="shared" ref="C234:C265" si="148">A233*A234</f>
+        <f t="shared" ref="C234" si="148">A233*A234</f>
         <v>8.9489809875530235E-2</v>
       </c>
       <c r="F234">
         <v>0.72206261258180104</v>
       </c>
       <c r="H234">
-        <f t="shared" ref="H234:H265" si="149">F233*F234</f>
+        <f t="shared" ref="H234" si="149">F233*F234</f>
         <v>7.3597253887575195E-2</v>
       </c>
       <c r="K234">
         <v>0.74817267598724702</v>
       </c>
       <c r="M234">
-        <f t="shared" ref="M234:M265" si="150">K233*K234</f>
+        <f t="shared" ref="M234" si="150">K233*K234</f>
         <v>7.8307556227697375E-2</v>
       </c>
       <c r="Q234">
         <v>0.72783794624950005</v>
       </c>
       <c r="S234">
-        <f t="shared" ref="S234:S265" si="151">Q233*Q234</f>
+        <f t="shared" ref="S234" si="151">Q233*Q234</f>
         <v>9.9486280960213572E-2</v>
       </c>
     </row>
@@ -18491,28 +19715,28 @@
         <v>0.69426249430350695</v>
       </c>
       <c r="C240">
-        <f t="shared" ref="C240:C271" si="152">A239*A240</f>
+        <f t="shared" ref="C240" si="152">A239*A240</f>
         <v>9.3769593762822206E-2</v>
       </c>
       <c r="F240">
         <v>0.72540396039603605</v>
       </c>
       <c r="H240">
-        <f t="shared" ref="H240:H271" si="153">F239*F240</f>
+        <f t="shared" ref="H240" si="153">F239*F240</f>
         <v>7.6623439101423815E-2</v>
       </c>
       <c r="K240">
         <v>0.74491809597224101</v>
       </c>
       <c r="M240">
-        <f t="shared" ref="M240:M271" si="154">K239*K240</f>
+        <f t="shared" ref="M240" si="154">K239*K240</f>
         <v>8.1190111113443542E-2</v>
       </c>
       <c r="Q240">
         <v>0.72137755864335096</v>
       </c>
       <c r="S240">
-        <f t="shared" ref="S240:S271" si="155">Q239*Q240</f>
+        <f t="shared" ref="S240" si="155">Q239*Q240</f>
         <v>0.10358678395194008</v>
       </c>
     </row>
@@ -18651,28 +19875,28 @@
         <v>0.66846108835576301</v>
       </c>
       <c r="C246">
-        <f t="shared" ref="C246:C277" si="156">A245*A246</f>
+        <f t="shared" ref="C246" si="156">A245*A246</f>
         <v>2.3438654082888737E-2</v>
       </c>
       <c r="F246">
         <v>0.71880131362889799</v>
       </c>
       <c r="H246">
-        <f t="shared" ref="H246:H277" si="157">F245*F246</f>
+        <f t="shared" ref="H246" si="157">F245*F246</f>
         <v>1.8312451630446088E-2</v>
       </c>
       <c r="K246">
         <v>0.69672131147540906</v>
       </c>
       <c r="M246">
-        <f t="shared" ref="M246:M277" si="158">K245*K246</f>
+        <f t="shared" ref="M246" si="158">K245*K246</f>
         <v>2.2317208931084413E-2</v>
       </c>
       <c r="Q246">
         <v>0.69714407502131304</v>
       </c>
       <c r="S246">
-        <f t="shared" ref="S246:S277" si="159">Q245*Q246</f>
+        <f t="shared" ref="S246" si="159">Q245*Q246</f>
         <v>3.5089036687406108E-2</v>
       </c>
     </row>
@@ -18811,28 +20035,28 @@
         <v>0.61154774215787799</v>
       </c>
       <c r="C252">
-        <f t="shared" ref="C252:C283" si="160">A251*A252</f>
+        <f t="shared" ref="C252" si="160">A251*A252</f>
         <v>3.6399261386951216E-2</v>
       </c>
       <c r="F252">
         <v>0.68244651673066503</v>
       </c>
       <c r="H252">
-        <f t="shared" ref="H252:H283" si="161">F251*F252</f>
+        <f t="shared" ref="H252" si="161">F251*F252</f>
         <v>2.6022297057039512E-2</v>
       </c>
       <c r="K252">
         <v>0.68570448307411103</v>
       </c>
       <c r="M252">
-        <f t="shared" ref="M252:M283" si="162">K251*K252</f>
+        <f t="shared" ref="M252" si="162">K251*K252</f>
         <v>3.1484593249175678E-2</v>
       </c>
       <c r="Q252">
         <v>0.66871702304915304</v>
       </c>
       <c r="S252">
-        <f t="shared" ref="S252:S283" si="163">Q251*Q252</f>
+        <f t="shared" ref="S252" si="163">Q251*Q252</f>
         <v>5.1663806050203792E-2</v>
       </c>
     </row>
@@ -18971,28 +20195,28 @@
         <v>0.61337579617834503</v>
       </c>
       <c r="C258">
-        <f t="shared" ref="C258:C289" si="164">A257*A258</f>
+        <f t="shared" ref="C258" si="164">A257*A258</f>
         <v>4.7418957734920067E-2</v>
       </c>
       <c r="F258">
         <v>0.65966482033801999</v>
       </c>
       <c r="H258">
-        <f t="shared" ref="H258:H289" si="165">F257*F258</f>
+        <f t="shared" ref="H258" si="165">F257*F258</f>
         <v>3.2383721335592287E-2</v>
       </c>
       <c r="K258">
         <v>0.67075790489983</v>
       </c>
       <c r="M258">
-        <f t="shared" ref="M258:M289" si="166">K257*K258</f>
+        <f t="shared" ref="M258" si="166">K257*K258</f>
         <v>3.8913510750768335E-2</v>
       </c>
       <c r="Q258">
         <v>0.65845065338243303</v>
       </c>
       <c r="S258">
-        <f t="shared" ref="S258:S289" si="167">Q257*Q258</f>
+        <f t="shared" ref="S258" si="167">Q257*Q258</f>
         <v>6.5223485661160527E-2</v>
       </c>
     </row>
@@ -19131,28 +20355,28 @@
         <v>0.61643812709029899</v>
       </c>
       <c r="C264">
-        <f t="shared" ref="C264:C295" si="168">A263*A264</f>
+        <f t="shared" ref="C264" si="168">A263*A264</f>
         <v>5.672394337299938E-2</v>
       </c>
       <c r="F264">
         <v>0.643332154227094</v>
       </c>
       <c r="H264">
-        <f t="shared" ref="H264:H295" si="169">F263*F264</f>
+        <f t="shared" ref="H264" si="169">F263*F264</f>
         <v>3.8040954631972948E-2</v>
       </c>
       <c r="K264">
         <v>0.65619878603945203</v>
       </c>
       <c r="M264">
-        <f t="shared" ref="M264:M295" si="170">K263*K264</f>
+        <f t="shared" ref="M264" si="170">K263*K264</f>
         <v>4.5415257619357538E-2</v>
       </c>
       <c r="Q264">
         <v>0.65989238410595796</v>
       </c>
       <c r="S264">
-        <f t="shared" ref="S264:S295" si="171">Q263*Q264</f>
+        <f t="shared" ref="S264" si="171">Q263*Q264</f>
         <v>7.6961488950868309E-2</v>
       </c>
     </row>
@@ -19291,28 +20515,28 @@
         <v>0.61359103208349697</v>
       </c>
       <c r="C270">
-        <f t="shared" ref="C270:C301" si="172">A269*A270</f>
+        <f t="shared" ref="C270" si="172">A269*A270</f>
         <v>6.5135822732868304E-2</v>
       </c>
       <c r="F270">
         <v>0.62213708470518003</v>
       </c>
       <c r="H270">
-        <f t="shared" ref="H270:H301" si="173">F269*F270</f>
+        <f t="shared" ref="H270" si="173">F269*F270</f>
         <v>4.3476332908029949E-2</v>
       </c>
       <c r="K270">
         <v>0.64703898840885699</v>
       </c>
       <c r="M270">
-        <f t="shared" ref="M270:M301" si="174">K269*K270</f>
+        <f t="shared" ref="M270" si="174">K269*K270</f>
         <v>5.1590245541809743E-2</v>
       </c>
       <c r="Q270">
         <v>0.65299246674147104</v>
       </c>
       <c r="S270">
-        <f t="shared" ref="S270:S301" si="175">Q269*Q270</f>
+        <f t="shared" ref="S270" si="175">Q269*Q270</f>
         <v>8.7406565114783022E-2</v>
       </c>
     </row>
@@ -19451,28 +20675,28 @@
         <v>0.61779898441603398</v>
       </c>
       <c r="C276">
-        <f t="shared" ref="C276:C307" si="176">A275*A276</f>
+        <f t="shared" ref="C276" si="176">A275*A276</f>
         <v>7.2389208042674305E-2</v>
       </c>
       <c r="F276">
         <v>0.61049692172383596</v>
       </c>
       <c r="H276">
-        <f t="shared" ref="H276:H307" si="177">F275*F276</f>
+        <f t="shared" ref="H276" si="177">F275*F276</f>
         <v>4.8396396773271511E-2</v>
       </c>
       <c r="K276">
         <v>0.649727301892844</v>
       </c>
       <c r="M276">
-        <f t="shared" ref="M276:M307" si="178">K275*K276</f>
+        <f t="shared" ref="M276" si="178">K275*K276</f>
         <v>5.6717567406722645E-2</v>
       </c>
       <c r="Q276">
         <v>0.65429810534476596</v>
       </c>
       <c r="S276">
-        <f t="shared" ref="S276:S307" si="179">Q275*Q276</f>
+        <f t="shared" ref="S276" si="179">Q275*Q276</f>
         <v>9.6565472359292817E-2</v>
       </c>
     </row>
@@ -19611,28 +20835,28 @@
         <v>0.61757505299870596</v>
       </c>
       <c r="C282">
-        <f t="shared" ref="C282:C313" si="180">A281*A282</f>
+        <f t="shared" ref="C282" si="180">A281*A282</f>
         <v>7.9407937159271039E-2</v>
       </c>
       <c r="F282">
         <v>0.60683393972678101</v>
       </c>
       <c r="H282">
-        <f t="shared" ref="H282:H313" si="181">F281*F282</f>
+        <f t="shared" ref="H282" si="181">F281*F282</f>
         <v>5.2827770025368863E-2</v>
       </c>
       <c r="K282">
         <v>0.64619173097433902</v>
       </c>
       <c r="M282">
-        <f t="shared" ref="M282:M313" si="182">K281*K282</f>
+        <f t="shared" ref="M282" si="182">K281*K282</f>
         <v>6.1810942108784836E-2</v>
       </c>
       <c r="Q282">
         <v>0.65438546204999104</v>
       </c>
       <c r="S282">
-        <f t="shared" ref="S282:S313" si="183">Q281*Q282</f>
+        <f t="shared" ref="S282" si="183">Q281*Q282</f>
         <v>0.10496000245195738</v>
       </c>
     </row>
@@ -19771,28 +20995,28 @@
         <v>0.616051680920085</v>
       </c>
       <c r="C288">
-        <f t="shared" ref="C288:C319" si="184">A287*A288</f>
+        <f t="shared" ref="C288" si="184">A287*A288</f>
         <v>8.572143003693096E-2</v>
       </c>
       <c r="F288">
         <v>0.60603582554516899</v>
       </c>
       <c r="H288">
-        <f t="shared" ref="H288:H319" si="185">F287*F288</f>
+        <f t="shared" ref="H288" si="185">F287*F288</f>
         <v>5.6966784496642636E-2</v>
       </c>
       <c r="K288">
         <v>0.643417972725425</v>
       </c>
       <c r="M288">
-        <f t="shared" ref="M288:M319" si="186">K287*K288</f>
+        <f t="shared" ref="M288" si="186">K287*K288</f>
         <v>6.6397372345564851E-2</v>
       </c>
       <c r="Q288">
         <v>0.65549486665832102</v>
       </c>
       <c r="S288">
-        <f t="shared" ref="S288:S319" si="187">Q287*Q288</f>
+        <f t="shared" ref="S288" si="187">Q287*Q288</f>
         <v>0.11232434027032782</v>
       </c>
     </row>
@@ -19931,28 +21155,28 @@
         <v>0.61457237393837005</v>
       </c>
       <c r="C294">
-        <f t="shared" ref="C294:C325" si="188">A293*A294</f>
+        <f t="shared" ref="C294" si="188">A293*A294</f>
         <v>9.1883235307527358E-2</v>
       </c>
       <c r="F294">
         <v>0.60207886791583198</v>
       </c>
       <c r="H294">
-        <f t="shared" ref="H294:H325" si="189">F293*F294</f>
+        <f t="shared" ref="H294" si="189">F293*F294</f>
         <v>6.0712882976473308E-2</v>
       </c>
       <c r="K294">
         <v>0.64045307443365795</v>
       </c>
       <c r="M294">
-        <f t="shared" ref="M294:M325" si="190">K293*K294</f>
+        <f t="shared" ref="M294" si="190">K293*K294</f>
         <v>7.0665210359385583E-2</v>
       </c>
       <c r="Q294">
         <v>0.65556471019041895</v>
       </c>
       <c r="S294">
-        <f t="shared" ref="S294:S325" si="191">Q293*Q294</f>
+        <f t="shared" ref="S294" si="191">Q293*Q294</f>
         <v>0.11949533957901293</v>
       </c>
     </row>
@@ -20091,28 +21315,28 @@
         <v>0.613105310531046</v>
       </c>
       <c r="C300">
-        <f t="shared" ref="C300:C331" si="192">A299*A300</f>
+        <f t="shared" ref="C300" si="192">A299*A300</f>
         <v>9.782765695527143E-2</v>
       </c>
       <c r="F300">
         <v>0.59851348728895704</v>
       </c>
       <c r="H300">
-        <f t="shared" ref="H300:H331" si="193">F299*F300</f>
+        <f t="shared" ref="H300" si="193">F299*F300</f>
         <v>6.4509611161078104E-2</v>
       </c>
       <c r="K300">
         <v>0.63200600388486405</v>
       </c>
       <c r="M300">
-        <f t="shared" ref="M300:M331" si="194">K299*K300</f>
+        <f t="shared" ref="M300" si="194">K299*K300</f>
         <v>7.5175912117456292E-2</v>
       </c>
       <c r="Q300">
         <v>0.65553782637803404</v>
       </c>
       <c r="S300">
-        <f t="shared" ref="S300:S331" si="195">Q299*Q300</f>
+        <f t="shared" ref="S300" si="195">Q299*Q300</f>
         <v>0.12604441107058439</v>
       </c>
     </row>
@@ -20251,28 +21475,28 @@
         <v>0.72621514486476202</v>
       </c>
       <c r="C306">
-        <f t="shared" ref="C306:C337" si="196">A305*A306</f>
+        <f t="shared" ref="C306" si="196">A305*A306</f>
         <v>8.7836205566141801E-2</v>
       </c>
       <c r="F306">
         <v>0.74402119818150603</v>
       </c>
       <c r="H306">
-        <f t="shared" ref="H306:H337" si="197">F305*F306</f>
+        <f t="shared" ref="H306" si="197">F305*F306</f>
         <v>9.3790481745491205E-2</v>
       </c>
       <c r="K306">
         <v>0.73873907330175104</v>
       </c>
       <c r="M306">
-        <f t="shared" ref="M306:M337" si="198">K305*K306</f>
+        <f t="shared" ref="M306" si="198">K305*K306</f>
         <v>7.48066937618449E-2</v>
       </c>
       <c r="Q306">
         <v>0.76436496350365002</v>
       </c>
       <c r="S306">
-        <f t="shared" ref="S306:S337" si="199">Q305*Q306</f>
+        <f t="shared" ref="S306" si="199">Q305*Q306</f>
         <v>9.9797485001977257E-2</v>
       </c>
     </row>
@@ -20411,28 +21635,28 @@
         <v>0.73043693064050896</v>
       </c>
       <c r="C312">
-        <f t="shared" ref="C312:C343" si="200">A311*A312</f>
+        <f t="shared" ref="C312" si="200">A311*A312</f>
         <v>0.12473378260197397</v>
       </c>
       <c r="F312">
         <v>0.74633518070411897</v>
       </c>
       <c r="H312">
-        <f t="shared" ref="H312:H343" si="201">F311*F312</f>
+        <f t="shared" ref="H312" si="201">F311*F312</f>
         <v>0.12969486513432926</v>
       </c>
       <c r="K312">
         <v>0.75585207935589305</v>
       </c>
       <c r="M312">
-        <f t="shared" ref="M312:M343" si="202">K311*K312</f>
+        <f t="shared" ref="M312" si="202">K311*K312</f>
         <v>0.10536166273738874</v>
       </c>
       <c r="Q312">
         <v>0.79708211467364298</v>
       </c>
       <c r="S312">
-        <f t="shared" ref="S312:S343" si="203">Q311*Q312</f>
+        <f t="shared" ref="S312" si="203">Q311*Q312</f>
         <v>0.13765230319116981</v>
       </c>
     </row>
@@ -20571,28 +21795,28 @@
         <v>0.75021693172633697</v>
       </c>
       <c r="C318">
-        <f t="shared" ref="C318:C361" si="204">A317*A318</f>
+        <f t="shared" ref="C318" si="204">A317*A318</f>
         <v>0.1443408268601146</v>
       </c>
       <c r="F318">
         <v>0.76544651401641495</v>
       </c>
       <c r="H318">
-        <f t="shared" ref="H318:H361" si="205">F317*F318</f>
+        <f t="shared" ref="H318" si="205">F317*F318</f>
         <v>0.14827888291296851</v>
       </c>
       <c r="K318">
         <v>0.76626784835068595</v>
       </c>
       <c r="M318">
-        <f t="shared" ref="M318:M360" si="206">K317*K318</f>
+        <f t="shared" ref="M318" si="206">K317*K318</f>
         <v>0.12005110477927954</v>
       </c>
       <c r="Q318">
         <v>0.82219215039355698</v>
       </c>
       <c r="S318">
-        <f t="shared" ref="S318:S361" si="207">Q317*Q318</f>
+        <f t="shared" ref="S318" si="207">Q317*Q318</f>
         <v>0.15199473302170646</v>
       </c>
     </row>
@@ -20731,28 +21955,28 @@
         <v>0.76513046803603302</v>
       </c>
       <c r="C324">
-        <f t="shared" ref="C324:C361" si="208">A323*A324</f>
+        <f t="shared" ref="C324" si="208">A323*A324</f>
         <v>0.1585066618653132</v>
       </c>
       <c r="F324">
         <v>0.78586766284145804</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H361" si="209">F323*F324</f>
+        <f t="shared" ref="H324" si="209">F323*F324</f>
         <v>0.16140500057646978</v>
       </c>
       <c r="K324">
         <v>0.782014114716576</v>
       </c>
       <c r="M324">
-        <f t="shared" ref="M324:M360" si="210">K323*K324</f>
+        <f t="shared" ref="M324" si="210">K323*K324</f>
         <v>0.13077944430782787</v>
       </c>
       <c r="Q324">
         <v>0.83103230474876399</v>
       </c>
       <c r="S324">
-        <f t="shared" ref="S324:S361" si="211">Q323*Q324</f>
+        <f t="shared" ref="S324" si="211">Q323*Q324</f>
         <v>0.16143792796182954</v>
       </c>
     </row>
@@ -20891,28 +22115,28 @@
         <v>0.78147619771293997</v>
       </c>
       <c r="C330">
-        <f t="shared" ref="C330:C361" si="212">A329*A330</f>
+        <f t="shared" ref="C330" si="212">A329*A330</f>
         <v>0.16930282421937101</v>
       </c>
       <c r="F330">
         <v>0.79757115569801296</v>
       </c>
       <c r="H330">
-        <f t="shared" ref="H330:H361" si="213">F329*F330</f>
+        <f t="shared" ref="H330" si="213">F329*F330</f>
         <v>0.17133312534335945</v>
       </c>
       <c r="K330">
         <v>0.79645252230441299</v>
       </c>
       <c r="M330">
-        <f t="shared" ref="M330:M360" si="214">K329*K330</f>
+        <f t="shared" ref="M330" si="214">K329*K330</f>
         <v>0.13893079159374758</v>
       </c>
       <c r="Q330">
         <v>0.84907841959879404</v>
       </c>
       <c r="S330">
-        <f t="shared" ref="S330:S361" si="215">Q329*Q330</f>
+        <f t="shared" ref="S330" si="215">Q329*Q330</f>
         <v>0.16845140354804222</v>
       </c>
     </row>
@@ -21051,28 +22275,28 @@
         <v>0.79385057260185798</v>
       </c>
       <c r="C336">
-        <f t="shared" ref="C336:C361" si="216">A335*A336</f>
+        <f t="shared" ref="C336" si="216">A335*A336</f>
         <v>0.17791988613951107</v>
       </c>
       <c r="F336">
         <v>0.81662180696912501</v>
       </c>
       <c r="H336">
-        <f t="shared" ref="H336:H361" si="217">F335*F336</f>
+        <f t="shared" ref="H336" si="217">F335*F336</f>
         <v>0.17902285402944204</v>
       </c>
       <c r="K336">
         <v>0.81329731801997995</v>
       </c>
       <c r="M336">
-        <f t="shared" ref="M336:M360" si="218">K335*K336</f>
+        <f t="shared" ref="M336" si="218">K335*K336</f>
         <v>0.145235781059394</v>
       </c>
       <c r="Q336">
         <v>0.86311294243949499</v>
       </c>
       <c r="S336">
-        <f t="shared" ref="S336:S361" si="219">Q335*Q336</f>
+        <f t="shared" ref="S336" si="219">Q335*Q336</f>
         <v>0.17367463861000798</v>
       </c>
     </row>
@@ -21211,28 +22435,28 @@
         <v>0.80803772940195295</v>
       </c>
       <c r="C342">
-        <f t="shared" ref="C342:C361" si="220">A341*A342</f>
+        <f t="shared" ref="C342" si="220">A341*A342</f>
         <v>0.18491547919127335</v>
       </c>
       <c r="F342">
         <v>0.82589256009113998</v>
       </c>
       <c r="H342">
-        <f t="shared" ref="H342:H361" si="221">F341*F342</f>
+        <f t="shared" ref="H342" si="221">F341*F342</f>
         <v>0.1852002856310124</v>
       </c>
       <c r="K342">
         <v>0.82562235412977003</v>
       </c>
       <c r="M342">
-        <f t="shared" ref="M342:M360" si="222">K341*K342</f>
+        <f t="shared" ref="M342" si="222">K341*K342</f>
         <v>0.1503074758303044</v>
       </c>
       <c r="Q342">
         <v>0.87496188219857696</v>
       </c>
       <c r="S342">
-        <f t="shared" ref="S342:S361" si="223">Q341*Q342</f>
+        <f t="shared" ref="S342" si="223">Q341*Q342</f>
         <v>0.17773907491152438</v>
       </c>
     </row>
@@ -21371,28 +22595,28 @@
         <v>0.82376970998653998</v>
       </c>
       <c r="C348">
-        <f t="shared" ref="C348:C361" si="224">A347*A348</f>
+        <f t="shared" ref="C348" si="224">A347*A348</f>
         <v>0.19060062246003667</v>
       </c>
       <c r="F348">
         <v>0.83119031756611805</v>
       </c>
       <c r="H348">
-        <f t="shared" ref="H348:H361" si="225">F347*F348</f>
+        <f t="shared" ref="H348" si="225">F347*F348</f>
         <v>0.1903879804399097</v>
       </c>
       <c r="K348">
         <v>0.83563434879213405</v>
       </c>
       <c r="M348">
-        <f t="shared" ref="M348:M360" si="226">K347*K348</f>
+        <f t="shared" ref="M348" si="226">K347*K348</f>
         <v>0.15449185698376505</v>
       </c>
       <c r="Q348">
         <v>0.88147493275205402</v>
       </c>
       <c r="S348">
-        <f t="shared" ref="S348:S361" si="227">Q347*Q348</f>
+        <f t="shared" ref="S348" si="227">Q347*Q348</f>
         <v>0.18113286889893529</v>
       </c>
     </row>
@@ -21531,28 +22755,28 @@
         <v>0.83593114268543101</v>
       </c>
       <c r="C354">
-        <f t="shared" ref="C354:C361" si="228">A353*A354</f>
+        <f t="shared" ref="C354" si="228">A353*A354</f>
         <v>0.19527220764664394</v>
       </c>
       <c r="F354">
         <v>0.84507031893635498</v>
       </c>
       <c r="H354">
-        <f t="shared" ref="H354:H361" si="229">F353*F354</f>
+        <f t="shared" ref="H354" si="229">F353*F354</f>
         <v>0.19480239821496312</v>
       </c>
       <c r="K354">
         <v>0.84520633446841598</v>
       </c>
       <c r="M354">
-        <f t="shared" ref="M354:M360" si="230">K353*K354</f>
+        <f t="shared" ref="M354" si="230">K353*K354</f>
         <v>0.15799254641620197</v>
       </c>
       <c r="Q354">
         <v>0.88720685788453502</v>
       </c>
       <c r="S354">
-        <f t="shared" ref="S354:S361" si="231">Q353*Q354</f>
+        <f t="shared" ref="S354" si="231">Q353*Q354</f>
         <v>0.18389606030238717</v>
       </c>
     </row>
@@ -21691,14 +22915,14 @@
         <v>0.84449438300260204</v>
       </c>
       <c r="C360">
-        <f t="shared" ref="C360:C361" si="232">A359*A360</f>
+        <f t="shared" ref="C360" si="232">A359*A360</f>
         <v>0.1992344667935885</v>
       </c>
       <c r="F360">
         <v>0.85473037891513903</v>
       </c>
       <c r="H360">
-        <f t="shared" ref="H360:H361" si="233">F359*F360</f>
+        <f t="shared" ref="H360" si="233">F359*F360</f>
         <v>0.19850454073778742</v>
       </c>
       <c r="K360">
@@ -21712,7 +22936,7 @@
         <v>0.893780008230874</v>
       </c>
       <c r="S360">
-        <f t="shared" ref="S360:S361" si="235">Q359*Q360</f>
+        <f t="shared" ref="S360" si="235">Q359*Q360</f>
         <v>0.18627639246930991</v>
       </c>
     </row>
